--- a/BackTest/2019-11-12 BackTest VET.xlsx
+++ b/BackTest/2019-11-12 BackTest VET.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>19.99999999999976</v>
+      </c>
       <c r="L12" t="n">
         <v>6.488999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>19.99999999999976</v>
+      </c>
       <c r="L13" t="n">
         <v>6.491999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.169999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>25.00000000000014</v>
+      </c>
       <c r="L14" t="n">
         <v>6.496</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.169999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571465</v>
+      </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.1899999999999995</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>6.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2199999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>15.78947368421063</v>
+      </c>
       <c r="L17" t="n">
         <v>6.503</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.2199999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>69.2307692307687</v>
+      </c>
       <c r="L18" t="n">
         <v>6.506</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.2199999999999998</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>66.66666666666617</v>
+      </c>
       <c r="L19" t="n">
         <v>6.515000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.2199999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>66.66666666666617</v>
+      </c>
       <c r="L20" t="n">
         <v>6.523000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>6.529000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.2600000000000007</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>6.531000000000003</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.2600000000000007</v>
       </c>
       <c r="K23" t="n">
-        <v>19.99999999999986</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L23" t="n">
         <v>6.533000000000004</v>
@@ -1466,7 +1488,7 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111082</v>
+        <v>-9.09090909090953</v>
       </c>
       <c r="L24" t="n">
         <v>6.532000000000004</v>
@@ -1515,7 +1537,7 @@
         <v>0.3000000000000016</v>
       </c>
       <c r="K25" t="n">
-        <v>17.24137931034466</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L25" t="n">
         <v>6.533000000000004</v>
@@ -1564,7 +1586,7 @@
         <v>0.3200000000000021</v>
       </c>
       <c r="K26" t="n">
-        <v>3.44827586206886</v>
+        <v>-20</v>
       </c>
       <c r="L26" t="n">
         <v>6.534000000000003</v>
@@ -1613,7 +1635,7 @@
         <v>0.3300000000000018</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L27" t="n">
         <v>6.531000000000003</v>
@@ -1662,7 +1684,7 @@
         <v>0.3400000000000016</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.225806451612811</v>
+        <v>-33.33333333333284</v>
       </c>
       <c r="L28" t="n">
         <v>6.527000000000003</v>
@@ -1711,7 +1733,7 @@
         <v>0.3500000000000014</v>
       </c>
       <c r="K29" t="n">
-        <v>23.07692307692271</v>
+        <v>-23.07692307692297</v>
       </c>
       <c r="L29" t="n">
         <v>6.524000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>0.3600000000000012</v>
       </c>
       <c r="K30" t="n">
-        <v>15.38461538461525</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L30" t="n">
         <v>6.520000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>0.4400000000000013</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.76470588235286</v>
+        <v>-66.6666666666665</v>
       </c>
       <c r="L31" t="n">
         <v>6.510000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>0.4600000000000017</v>
       </c>
       <c r="K32" t="n">
-        <v>-26.6666666666661</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L32" t="n">
         <v>6.500000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>0.4700000000000024</v>
       </c>
       <c r="K33" t="n">
-        <v>-29.0322580645157</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L33" t="n">
         <v>6.489</v>
@@ -1962,7 +1984,7 @@
         <v>0.5000000000000027</v>
       </c>
       <c r="K34" t="n">
-        <v>-21.21212121212107</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L34" t="n">
         <v>6.483</v>
@@ -2013,7 +2035,7 @@
         <v>0.5000000000000027</v>
       </c>
       <c r="K35" t="n">
-        <v>-21.21212121212107</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>6.474999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>0.5400000000000027</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.85714285714277</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L36" t="n">
         <v>6.472999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>0.5400000000000027</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.4999999999999</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>6.471999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>0.5800000000000027</v>
       </c>
       <c r="K38" t="n">
-        <v>-22.22222222222206</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L38" t="n">
         <v>6.467999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>0.5800000000000027</v>
       </c>
       <c r="K39" t="n">
-        <v>-22.22222222222206</v>
+        <v>-18.18181818181807</v>
       </c>
       <c r="L39" t="n">
         <v>6.462999999999997</v>
@@ -2268,7 +2290,7 @@
         <v>0.6000000000000032</v>
       </c>
       <c r="K40" t="n">
-        <v>-15.78947368421028</v>
+        <v>37.49999999999986</v>
       </c>
       <c r="L40" t="n">
         <v>6.460999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>0.6200000000000028</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.263157894736695</v>
+        <v>37.49999999999952</v>
       </c>
       <c r="L41" t="n">
         <v>6.468999999999997</v>
@@ -2370,7 +2392,7 @@
         <v>0.650000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.564102564102494</v>
+        <v>55.55555555555567</v>
       </c>
       <c r="L42" t="n">
         <v>6.477999999999997</v>
@@ -2421,7 +2443,7 @@
         <v>0.6700000000000026</v>
       </c>
       <c r="K43" t="n">
-        <v>2.439024390243839</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L43" t="n">
         <v>6.489999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>0.7300000000000031</v>
       </c>
       <c r="K44" t="n">
-        <v>20.00000000000008</v>
+        <v>65.21739130434786</v>
       </c>
       <c r="L44" t="n">
         <v>6.504999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>0.7400000000000038</v>
       </c>
       <c r="K45" t="n">
-        <v>13.63636363636348</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L45" t="n">
         <v>6.518999999999998</v>
@@ -2574,7 +2596,7 @@
         <v>0.7500000000000044</v>
       </c>
       <c r="K46" t="n">
-        <v>20.93023255813959</v>
+        <v>52.3809523809521</v>
       </c>
       <c r="L46" t="n">
         <v>6.529999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>0.7700000000000049</v>
       </c>
       <c r="K47" t="n">
-        <v>18.18181818181807</v>
+        <v>68.42105263157811</v>
       </c>
       <c r="L47" t="n">
         <v>6.538999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>0.8100000000000049</v>
       </c>
       <c r="K48" t="n">
-        <v>27.65957446808489</v>
+        <v>73.91304347826014</v>
       </c>
       <c r="L48" t="n">
         <v>6.555999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>0.8200000000000047</v>
       </c>
       <c r="K49" t="n">
-        <v>27.65957446808489</v>
+        <v>72.72727272727188</v>
       </c>
       <c r="L49" t="n">
         <v>6.574</v>
@@ -2778,7 +2800,7 @@
         <v>0.8300000000000054</v>
       </c>
       <c r="K50" t="n">
-        <v>31.91489361702107</v>
+        <v>71.42857142857071</v>
       </c>
       <c r="L50" t="n">
         <v>6.590999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>0.8300000000000054</v>
       </c>
       <c r="K51" t="n">
-        <v>58.97435897435847</v>
+        <v>66.66666666666585</v>
       </c>
       <c r="L51" t="n">
         <v>6.606</v>
@@ -2880,7 +2902,7 @@
         <v>0.850000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>58.97435897435837</v>
+        <v>66.66666666666585</v>
       </c>
       <c r="L52" t="n">
         <v>6.62</v>
@@ -2931,7 +2953,7 @@
         <v>0.850000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>63.15789473684173</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L53" t="n">
         <v>6.632000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>0.850000000000005</v>
       </c>
       <c r="K54" t="n">
-        <v>59.99999999999959</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L54" t="n">
         <v>6.638000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>0.8700000000000045</v>
       </c>
       <c r="K55" t="n">
-        <v>51.35135135135119</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>6.643000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>0.8700000000000045</v>
       </c>
       <c r="K56" t="n">
-        <v>45.45454545454531</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L56" t="n">
         <v>6.647000000000003</v>
@@ -3135,7 +3157,7 @@
         <v>0.8700000000000045</v>
       </c>
       <c r="K57" t="n">
-        <v>45.45454545454531</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L57" t="n">
         <v>6.653000000000003</v>
@@ -3186,7 +3208,7 @@
         <v>0.9000000000000039</v>
       </c>
       <c r="K58" t="n">
-        <v>68.74999999999967</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L58" t="n">
         <v>6.658000000000004</v>
@@ -3237,7 +3259,7 @@
         <v>0.9300000000000033</v>
       </c>
       <c r="K59" t="n">
-        <v>54.28571428571431</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>6.659000000000004</v>
@@ -3288,7 +3310,7 @@
         <v>0.9700000000000033</v>
       </c>
       <c r="K60" t="n">
-        <v>35.1351351351351</v>
+        <v>-28.57142857142902</v>
       </c>
       <c r="L60" t="n">
         <v>6.655000000000004</v>
@@ -3339,7 +3361,7 @@
         <v>0.9700000000000033</v>
       </c>
       <c r="K61" t="n">
-        <v>31.42857142857147</v>
+        <v>-50.00000000000037</v>
       </c>
       <c r="L61" t="n">
         <v>6.651000000000003</v>
@@ -3390,7 +3412,7 @@
         <v>0.980000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>21.21212121212097</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L62" t="n">
         <v>6.644000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>0.9900000000000047</v>
       </c>
       <c r="K63" t="n">
-        <v>18.75000000000003</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L63" t="n">
         <v>6.638000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>1.010000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.142857142857256</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L64" t="n">
         <v>6.630000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>1.030000000000006</v>
       </c>
       <c r="K65" t="n">
-        <v>3.448275862069176</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L65" t="n">
         <v>6.626000000000002</v>
@@ -3594,7 +3616,7 @@
         <v>1.040000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.448275862069176</v>
+        <v>-29.41176470588248</v>
       </c>
       <c r="L66" t="n">
         <v>6.621</v>
@@ -3645,7 +3667,7 @@
         <v>1.060000000000007</v>
       </c>
       <c r="K67" t="n">
-        <v>10.34482758620692</v>
+        <v>-37.4999999999991</v>
       </c>
       <c r="L67" t="n">
         <v>6.618</v>
@@ -3696,7 +3718,7 @@
         <v>1.070000000000007</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>6.613</v>
@@ -3747,7 +3769,7 @@
         <v>1.070000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>-3.999999999999886</v>
+        <v>19.99999999999893</v>
       </c>
       <c r="L69" t="n">
         <v>6.610999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>1.080000000000006</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.00000000000006</v>
+        <v>9.090909090908649</v>
       </c>
       <c r="L70" t="n">
         <v>6.611999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>1.080000000000006</v>
       </c>
       <c r="K71" t="n">
-        <v>-12.00000000000006</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>6.613</v>
@@ -3900,7 +3922,7 @@
         <v>1.100000000000006</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.00000000000006</v>
+        <v>27.27272727272639</v>
       </c>
       <c r="L72" t="n">
         <v>6.617</v>
@@ -3951,7 +3973,7 @@
         <v>1.120000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>-18.51851851851842</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L73" t="n">
         <v>6.618</v>
@@ -4002,7 +4024,7 @@
         <v>1.160000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>-29.03225806451604</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L74" t="n">
         <v>6.617</v>
@@ -4053,7 +4075,7 @@
         <v>1.160000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>-24.13793103448278</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L75" t="n">
         <v>6.614</v>
@@ -4104,7 +4126,7 @@
         <v>1.160000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>-24.13793103448278</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L76" t="n">
         <v>6.612</v>
@@ -4155,7 +4177,7 @@
         <v>1.160000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>-24.13793103448278</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L77" t="n">
         <v>6.608</v>
@@ -4206,7 +4228,7 @@
         <v>1.160000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>-38.46153846153809</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L78" t="n">
         <v>6.603</v>
@@ -4257,7 +4279,7 @@
         <v>1.270000000000006</v>
       </c>
       <c r="K79" t="n">
-        <v>11.76470588235286</v>
+        <v>36.84210526315815</v>
       </c>
       <c r="L79" t="n">
         <v>6.609</v>
@@ -4308,7 +4330,7 @@
         <v>1.280000000000006</v>
       </c>
       <c r="K80" t="n">
-        <v>22.5806451612899</v>
+        <v>29.99999999999978</v>
       </c>
       <c r="L80" t="n">
         <v>6.615</v>
@@ -4359,7 +4381,7 @@
         <v>1.300000000000006</v>
       </c>
       <c r="K81" t="n">
-        <v>15.15151515151497</v>
+        <v>10.00000000000022</v>
       </c>
       <c r="L81" t="n">
         <v>6.619</v>
@@ -4410,7 +4432,7 @@
         <v>1.320000000000006</v>
       </c>
       <c r="K82" t="n">
-        <v>23.52941176470579</v>
+        <v>29.99999999999978</v>
       </c>
       <c r="L82" t="n">
         <v>6.623</v>
@@ -4461,7 +4483,7 @@
         <v>1.320000000000006</v>
       </c>
       <c r="K83" t="n">
-        <v>21.21212121212097</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L83" t="n">
         <v>6.629</v>
@@ -4512,7 +4534,7 @@
         <v>1.320000000000006</v>
       </c>
       <c r="K84" t="n">
-        <v>29.03225806451604</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L84" t="n">
         <v>6.639</v>
@@ -4563,7 +4585,7 @@
         <v>1.330000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>26.66666666666663</v>
+        <v>64.70588235294106</v>
       </c>
       <c r="L85" t="n">
         <v>6.65</v>
@@ -4614,7 +4636,7 @@
         <v>1.360000000000007</v>
       </c>
       <c r="K86" t="n">
-        <v>18.75000000000014</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L86" t="n">
         <v>6.657999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K87" t="n">
-        <v>23.52941176470591</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L87" t="n">
         <v>6.67</v>
@@ -4716,7 +4738,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K88" t="n">
-        <v>21.21212121212129</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L88" t="n">
         <v>6.682</v>
@@ -4767,7 +4789,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K89" t="n">
-        <v>21.21212121212129</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L89" t="n">
         <v>6.683000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K90" t="n">
-        <v>25</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L90" t="n">
         <v>6.685000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K91" t="n">
-        <v>25</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L91" t="n">
         <v>6.689000000000003</v>
@@ -4920,7 +4942,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>20.00000000000012</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L92" t="n">
         <v>6.691000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>28.57142857142848</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L93" t="n">
         <v>6.693000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>1.400000000000007</v>
       </c>
       <c r="K94" t="n">
-        <v>49.99999999999982</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L94" t="n">
         <v>6.695000000000005</v>
@@ -5073,7 +5095,7 @@
         <v>1.410000000000006</v>
       </c>
       <c r="K95" t="n">
-        <v>43.99999999999997</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L95" t="n">
         <v>6.695000000000005</v>
@@ -5124,7 +5146,7 @@
         <v>1.420000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>46.15384615384608</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>6.699000000000005</v>
@@ -5175,7 +5197,7 @@
         <v>1.430000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>40.74074074074079</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>6.698000000000005</v>
@@ -5226,7 +5248,7 @@
         <v>1.430000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>40.74074074074079</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>6.697000000000005</v>
@@ -5277,7 +5299,7 @@
         <v>1.470000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>20</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L99" t="n">
         <v>6.700000000000005</v>
@@ -5328,7 +5350,7 @@
         <v>1.470000000000006</v>
       </c>
       <c r="K100" t="n">
-        <v>26.31578947368465</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L100" t="n">
         <v>6.703000000000005</v>
@@ -5379,7 +5401,7 @@
         <v>1.490000000000006</v>
       </c>
       <c r="K101" t="n">
-        <v>47.36842105263162</v>
+        <v>55.55555555555599</v>
       </c>
       <c r="L101" t="n">
         <v>6.708000000000004</v>
@@ -5430,7 +5452,7 @@
         <v>1.530000000000006</v>
       </c>
       <c r="K102" t="n">
-        <v>52.38095238095254</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L102" t="n">
         <v>6.717000000000004</v>
@@ -5481,7 +5503,7 @@
         <v>1.530000000000006</v>
       </c>
       <c r="K103" t="n">
-        <v>52.38095238095254</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L103" t="n">
         <v>6.726000000000004</v>
@@ -5532,7 +5554,7 @@
         <v>1.560000000000006</v>
       </c>
       <c r="K104" t="n">
-        <v>58.33333333333351</v>
+        <v>86.6666666666669</v>
       </c>
       <c r="L104" t="n">
         <v>6.738000000000004</v>
@@ -5583,7 +5605,7 @@
         <v>1.560000000000006</v>
       </c>
       <c r="K105" t="n">
-        <v>56.52173913043485</v>
+        <v>85.71428571428599</v>
       </c>
       <c r="L105" t="n">
         <v>6.751000000000005</v>
@@ -5634,7 +5656,7 @@
         <v>1.620000000000006</v>
       </c>
       <c r="K106" t="n">
-        <v>38.46153846153836</v>
+        <v>36.8421052631575</v>
       </c>
       <c r="L106" t="n">
         <v>6.757000000000005</v>
@@ -5685,7 +5707,7 @@
         <v>1.740000000000006</v>
       </c>
       <c r="K107" t="n">
-        <v>52.94117647058817</v>
+        <v>61.2903225806449</v>
       </c>
       <c r="L107" t="n">
         <v>6.776000000000005</v>
@@ -5736,7 +5758,7 @@
         <v>1.740000000000006</v>
       </c>
       <c r="K108" t="n">
-        <v>52.94117647058817</v>
+        <v>55.55555555555526</v>
       </c>
       <c r="L108" t="n">
         <v>6.795000000000004</v>
@@ -5787,7 +5809,7 @@
         <v>1.760000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>55.55555555555556</v>
+        <v>58.6206896551722</v>
       </c>
       <c r="L109" t="n">
         <v>6.812000000000005</v>
@@ -5838,7 +5860,7 @@
         <v>1.770000000000008</v>
       </c>
       <c r="K110" t="n">
-        <v>51.35135135135108</v>
+        <v>49.99999999999952</v>
       </c>
       <c r="L110" t="n">
         <v>6.828000000000005</v>
@@ -5889,7 +5911,7 @@
         <v>1.800000000000007</v>
       </c>
       <c r="K111" t="n">
-        <v>40</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="L111" t="n">
         <v>6.839000000000004</v>
@@ -5940,7 +5962,7 @@
         <v>1.870000000000006</v>
       </c>
       <c r="K112" t="n">
-        <v>48.93617021276589</v>
+        <v>41.17647058823511</v>
       </c>
       <c r="L112" t="n">
         <v>6.853000000000004</v>
@@ -5991,7 +6013,7 @@
         <v>1.880000000000006</v>
       </c>
       <c r="K113" t="n">
-        <v>45.83333333333333</v>
+        <v>31.24999999999986</v>
       </c>
       <c r="L113" t="n">
         <v>6.866000000000004</v>
@@ -6042,7 +6064,7 @@
         <v>1.910000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>49.01960784313727</v>
+        <v>37.14285714285705</v>
       </c>
       <c r="L114" t="n">
         <v>6.879000000000005</v>
@@ -6093,7 +6115,7 @@
         <v>1.940000000000007</v>
       </c>
       <c r="K115" t="n">
-        <v>54.71698113207545</v>
+        <v>68.75000000000013</v>
       </c>
       <c r="L115" t="n">
         <v>6.895000000000005</v>
@@ -6144,7 +6166,7 @@
         <v>1.990000000000007</v>
       </c>
       <c r="K116" t="n">
-        <v>40.3508771929823</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L116" t="n">
         <v>6.912000000000004</v>
@@ -6195,7 +6217,7 @@
         <v>2.000000000000008</v>
       </c>
       <c r="K117" t="n">
-        <v>43.85964912280686</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L117" t="n">
         <v>6.918000000000005</v>
@@ -6246,7 +6268,7 @@
         <v>2.010000000000009</v>
       </c>
       <c r="K118" t="n">
-        <v>41.37931034482727</v>
+        <v>11.99999999999966</v>
       </c>
       <c r="L118" t="n">
         <v>6.923000000000004</v>
@@ -6297,7 +6319,7 @@
         <v>2.010000000000009</v>
       </c>
       <c r="K119" t="n">
-        <v>37.03703703703672</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L119" t="n">
         <v>6.926000000000005</v>
@@ -6348,7 +6370,7 @@
         <v>2.010000000000009</v>
       </c>
       <c r="K120" t="n">
-        <v>37.03703703703672</v>
+        <v>33.33333333333277</v>
       </c>
       <c r="L120" t="n">
         <v>6.930000000000005</v>
@@ -6399,7 +6421,7 @@
         <v>2.060000000000009</v>
       </c>
       <c r="K121" t="n">
-        <v>40.35087719298226</v>
+        <v>26.31578947368416</v>
       </c>
       <c r="L121" t="n">
         <v>6.942000000000005</v>
@@ -6450,7 +6472,7 @@
         <v>2.100000000000009</v>
       </c>
       <c r="K122" t="n">
-        <v>40.35087719298217</v>
+        <v>45.45454545454479</v>
       </c>
       <c r="L122" t="n">
         <v>6.951000000000005</v>
@@ -6501,7 +6523,7 @@
         <v>2.100000000000009</v>
       </c>
       <c r="K123" t="n">
-        <v>40.35087719298217</v>
+        <v>36.84210526315715</v>
       </c>
       <c r="L123" t="n">
         <v>6.961000000000004</v>
@@ -6552,7 +6574,7 @@
         <v>2.120000000000008</v>
       </c>
       <c r="K124" t="n">
-        <v>32.14285714285696</v>
+        <v>11.11111111111078</v>
       </c>
       <c r="L124" t="n">
         <v>6.966000000000004</v>
@@ -6603,7 +6625,7 @@
         <v>2.130000000000008</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333313</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L125" t="n">
         <v>6.969000000000004</v>
@@ -6654,7 +6676,7 @@
         <v>2.130000000000008</v>
       </c>
       <c r="K126" t="n">
-        <v>49.0196078431371</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L126" t="n">
         <v>6.977000000000004</v>
@@ -6705,7 +6727,7 @@
         <v>2.200000000000007</v>
       </c>
       <c r="K127" t="n">
-        <v>13.04347826086965</v>
+        <v>5.263157894737236</v>
       </c>
       <c r="L127" t="n">
         <v>6.977000000000004</v>
@@ -6756,7 +6778,7 @@
         <v>2.280000000000006</v>
       </c>
       <c r="K128" t="n">
-        <v>25.92592592592586</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L128" t="n">
         <v>6.986000000000004</v>
@@ -6807,7 +6829,7 @@
         <v>2.280000000000006</v>
       </c>
       <c r="K129" t="n">
-        <v>23.07692307692295</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L129" t="n">
         <v>6.995000000000005</v>
@@ -6858,7 +6880,7 @@
         <v>2.410000000000007</v>
       </c>
       <c r="K130" t="n">
-        <v>40.62500000000013</v>
+        <v>48.57142857142885</v>
       </c>
       <c r="L130" t="n">
         <v>7.017000000000005</v>
@@ -6909,7 +6931,7 @@
         <v>2.430000000000007</v>
       </c>
       <c r="K131" t="n">
-        <v>49.20634920634915</v>
+        <v>45.45454545454579</v>
       </c>
       <c r="L131" t="n">
         <v>7.036000000000004</v>
@@ -6960,7 +6982,7 @@
         <v>2.480000000000007</v>
       </c>
       <c r="K132" t="n">
-        <v>31.1475409836066</v>
+        <v>26.31578947368448</v>
       </c>
       <c r="L132" t="n">
         <v>7.046000000000005</v>
@@ -7011,7 +7033,7 @@
         <v>2.490000000000006</v>
       </c>
       <c r="K133" t="n">
-        <v>31.1475409836066</v>
+        <v>29.72972972972995</v>
       </c>
       <c r="L133" t="n">
         <v>7.055000000000005</v>
@@ -7062,7 +7084,7 @@
         <v>2.530000000000006</v>
       </c>
       <c r="K134" t="n">
-        <v>32.25806451612905</v>
+        <v>35.00000000000026</v>
       </c>
       <c r="L134" t="n">
         <v>7.070000000000006</v>
@@ -7113,7 +7135,7 @@
         <v>2.550000000000007</v>
       </c>
       <c r="K135" t="n">
-        <v>24.59016393442613</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L135" t="n">
         <v>7.082000000000005</v>
@@ -7164,7 +7186,7 @@
         <v>2.590000000000007</v>
       </c>
       <c r="K136" t="n">
-        <v>26.66666666666671</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L136" t="n">
         <v>7.090000000000005</v>
@@ -7215,7 +7237,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K137" t="n">
-        <v>23.33333333333333</v>
+        <v>18.75000000000014</v>
       </c>
       <c r="L137" t="n">
         <v>7.104000000000005</v>
@@ -7266,7 +7288,7 @@
         <v>2.610000000000007</v>
       </c>
       <c r="K138" t="n">
-        <v>26.66666666666678</v>
+        <v>21.21212121212129</v>
       </c>
       <c r="L138" t="n">
         <v>7.111000000000006</v>
@@ -7317,7 +7339,7 @@
         <v>2.620000000000006</v>
       </c>
       <c r="K139" t="n">
-        <v>24.59016393442638</v>
+        <v>-33.33333333333361</v>
       </c>
       <c r="L139" t="n">
         <v>7.117000000000006</v>
@@ -7368,7 +7390,7 @@
         <v>2.620000000000006</v>
       </c>
       <c r="K140" t="n">
-        <v>24.59016393442638</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L140" t="n">
         <v>7.110000000000005</v>
@@ -7419,7 +7441,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K141" t="n">
-        <v>13.79310344827578</v>
+        <v>-37.50000000000028</v>
       </c>
       <c r="L141" t="n">
         <v>7.099000000000006</v>
@@ -7470,7 +7492,7 @@
         <v>2.670000000000007</v>
       </c>
       <c r="K142" t="n">
-        <v>12.28070175438605</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L142" t="n">
         <v>7.096000000000005</v>
@@ -7521,7 +7543,7 @@
         <v>2.710000000000007</v>
       </c>
       <c r="K143" t="n">
-        <v>4.918032786885298</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="L143" t="n">
         <v>7.090000000000005</v>
@@ -7572,7 +7594,7 @@
         <v>2.780000000000006</v>
       </c>
       <c r="K144" t="n">
-        <v>-3.030303030302973</v>
+        <v>-65.21739130434773</v>
       </c>
       <c r="L144" t="n">
         <v>7.073000000000005</v>
@@ -7623,7 +7645,7 @@
         <v>2.790000000000006</v>
       </c>
       <c r="K145" t="n">
-        <v>-3.030303030302973</v>
+        <v>-50</v>
       </c>
       <c r="L145" t="n">
         <v>7.059000000000005</v>
@@ -7674,7 +7696,7 @@
         <v>2.820000000000006</v>
       </c>
       <c r="K146" t="n">
-        <v>1.449275362318814</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="L146" t="n">
         <v>7.052000000000004</v>
@@ -7725,7 +7747,7 @@
         <v>2.840000000000006</v>
       </c>
       <c r="K147" t="n">
-        <v>15.62499999999998</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L147" t="n">
         <v>7.048000000000004</v>
@@ -7776,7 +7798,7 @@
         <v>2.840000000000006</v>
       </c>
       <c r="K148" t="n">
-        <v>3.571428571428656</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L148" t="n">
         <v>7.043000000000005</v>
@@ -7827,7 +7849,7 @@
         <v>2.850000000000006</v>
       </c>
       <c r="K149" t="n">
-        <v>1.754385964912401</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L149" t="n">
         <v>7.038000000000006</v>
@@ -7878,7 +7900,7 @@
         <v>2.880000000000006</v>
       </c>
       <c r="K150" t="n">
-        <v>-31.91489361702143</v>
+        <v>-24.99999999999991</v>
       </c>
       <c r="L150" t="n">
         <v>7.030000000000006</v>
@@ -7929,7 +7951,7 @@
         <v>2.880000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>-37.77777777777782</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L151" t="n">
         <v>7.024000000000005</v>
@@ -7980,7 +8002,7 @@
         <v>2.910000000000006</v>
       </c>
       <c r="K152" t="n">
-        <v>-20.93023255813952</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L152" t="n">
         <v>7.018000000000005</v>
@@ -8031,7 +8053,7 @@
         <v>2.910000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>-19.04761904761907</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L153" t="n">
         <v>7.016000000000005</v>
@@ -8082,7 +8104,7 @@
         <v>2.910000000000006</v>
       </c>
       <c r="K154" t="n">
-        <v>-31.57894736842109</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>7.021000000000005</v>
@@ -8133,7 +8155,7 @@
         <v>2.950000000000006</v>
       </c>
       <c r="K155" t="n">
-        <v>-34.99999999999996</v>
+        <v>-23.07692307692244</v>
       </c>
       <c r="L155" t="n">
         <v>7.021000000000005</v>
@@ -8184,7 +8206,7 @@
         <v>2.980000000000006</v>
       </c>
       <c r="K156" t="n">
-        <v>-17.94871794871808</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L156" t="n">
         <v>7.021000000000005</v>
@@ -8235,7 +8257,7 @@
         <v>2.980000000000006</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.7894736842107</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L157" t="n">
         <v>7.019000000000004</v>
@@ -8286,7 +8308,7 @@
         <v>2.980000000000006</v>
       </c>
       <c r="K158" t="n">
-        <v>-18.91891891891904</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L158" t="n">
         <v>7.017000000000003</v>
@@ -8337,7 +8359,7 @@
         <v>2.990000000000006</v>
       </c>
       <c r="K159" t="n">
-        <v>-13.51351351351346</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L159" t="n">
         <v>7.017000000000003</v>
@@ -8388,7 +8410,7 @@
         <v>3.010000000000007</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.948717948718</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L160" t="n">
         <v>7.018000000000003</v>
@@ -8439,7 +8461,7 @@
         <v>3.020000000000007</v>
       </c>
       <c r="K161" t="n">
-        <v>-10.5263157894737</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L161" t="n">
         <v>7.020000000000003</v>
@@ -8490,7 +8512,7 @@
         <v>3.040000000000006</v>
       </c>
       <c r="K162" t="n">
-        <v>-24.32432432432434</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L162" t="n">
         <v>7.017000000000003</v>
@@ -8541,7 +8563,7 @@
         <v>3.040000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>-15.15151515151513</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L163" t="n">
         <v>7.014000000000003</v>
@@ -8592,7 +8614,7 @@
         <v>3.060000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>14.28571428571401</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L164" t="n">
         <v>7.013000000000003</v>
@@ -8643,7 +8665,7 @@
         <v>3.070000000000007</v>
       </c>
       <c r="K165" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L165" t="n">
         <v>7.017000000000003</v>
@@ -8694,7 +8716,7 @@
         <v>3.070000000000007</v>
       </c>
       <c r="K166" t="n">
-        <v>4.000000000000256</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L166" t="n">
         <v>7.018000000000003</v>
@@ -8745,7 +8767,7 @@
         <v>3.070000000000007</v>
       </c>
       <c r="K167" t="n">
-        <v>-4.347826086956421</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L167" t="n">
         <v>7.019000000000004</v>
@@ -8796,7 +8818,7 @@
         <v>3.110000000000007</v>
       </c>
       <c r="K168" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>7.024000000000005</v>
@@ -8847,7 +8869,7 @@
         <v>3.130000000000006</v>
       </c>
       <c r="K169" t="n">
-        <v>21.42857142857127</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L169" t="n">
         <v>7.030000000000006</v>
@@ -8898,7 +8920,7 @@
         <v>3.190000000000007</v>
       </c>
       <c r="K170" t="n">
-        <v>48.38709677419358</v>
+        <v>76.47058823529461</v>
       </c>
       <c r="L170" t="n">
         <v>7.044000000000006</v>
@@ -8949,7 +8971,7 @@
         <v>3.190000000000007</v>
       </c>
       <c r="K171" t="n">
-        <v>48.38709677419358</v>
+        <v>100</v>
       </c>
       <c r="L171" t="n">
         <v>7.057000000000007</v>
@@ -9000,7 +9022,7 @@
         <v>3.190000000000007</v>
       </c>
       <c r="K172" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L172" t="n">
         <v>7.072000000000007</v>
@@ -9051,7 +9073,7 @@
         <v>3.230000000000007</v>
       </c>
       <c r="K173" t="n">
-        <v>25</v>
+        <v>52.94117647058842</v>
       </c>
       <c r="L173" t="n">
         <v>7.083000000000007</v>
@@ -9102,7 +9124,7 @@
         <v>3.240000000000006</v>
       </c>
       <c r="K174" t="n">
-        <v>27.27272727272723</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L174" t="n">
         <v>7.093000000000008</v>
@@ -9153,7 +9175,7 @@
         <v>3.250000000000006</v>
       </c>
       <c r="K175" t="n">
-        <v>40.00000000000006</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L175" t="n">
         <v>7.101000000000008</v>
@@ -9204,7 +9226,7 @@
         <v>3.260000000000007</v>
       </c>
       <c r="K176" t="n">
-        <v>28.57142857142848</v>
+        <v>36.8421052631575</v>
       </c>
       <c r="L176" t="n">
         <v>7.108000000000007</v>
@@ -9255,7 +9277,7 @@
         <v>3.260000000000007</v>
       </c>
       <c r="K177" t="n">
-        <v>28.57142857142848</v>
+        <v>19.99999999999953</v>
       </c>
       <c r="L177" t="n">
         <v>7.115000000000006</v>
@@ -9306,7 +9328,7 @@
         <v>3.270000000000008</v>
       </c>
       <c r="K178" t="n">
-        <v>31.03448275862075</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L178" t="n">
         <v>7.119000000000005</v>
@@ -9357,7 +9379,7 @@
         <v>3.310000000000008</v>
       </c>
       <c r="K179" t="n">
-        <v>12.49999999999996</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L179" t="n">
         <v>7.117000000000004</v>
@@ -9408,7 +9430,7 @@
         <v>3.310000000000008</v>
       </c>
       <c r="K180" t="n">
-        <v>20.00000000000012</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L180" t="n">
         <v>7.109000000000004</v>
@@ -9459,7 +9481,7 @@
         <v>3.320000000000008</v>
       </c>
       <c r="K181" t="n">
-        <v>13.33333333333328</v>
+        <v>-69.23076923076891</v>
       </c>
       <c r="L181" t="n">
         <v>7.100000000000003</v>
@@ -9510,7 +9532,7 @@
         <v>3.340000000000009</v>
       </c>
       <c r="K182" t="n">
-        <v>26.66666666666647</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L182" t="n">
         <v>7.093000000000002</v>
@@ -9561,7 +9583,7 @@
         <v>3.430000000000009</v>
       </c>
       <c r="K183" t="n">
-        <v>-2.564102564102494</v>
+        <v>-68.42105263157811</v>
       </c>
       <c r="L183" t="n">
         <v>7.081000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>3.490000000000008</v>
       </c>
       <c r="K184" t="n">
-        <v>6.976744186046531</v>
+        <v>-25</v>
       </c>
       <c r="L184" t="n">
         <v>7.074000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>3.510000000000009</v>
       </c>
       <c r="K185" t="n">
-        <v>9.090909090909054</v>
+        <v>-11.99999999999966</v>
       </c>
       <c r="L185" t="n">
         <v>7.07</v>
@@ -9714,7 +9736,7 @@
         <v>3.520000000000008</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111102</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L186" t="n">
         <v>7.068000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>3.520000000000008</v>
       </c>
       <c r="K187" t="n">
-        <v>11.11111111111102</v>
+        <v>-12.00000000000006</v>
       </c>
       <c r="L187" t="n">
         <v>7.066000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>3.530000000000008</v>
       </c>
       <c r="K189" t="n">
-        <v>-4.999999999999867</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>7.062000000000003</v>
@@ -9918,7 +9940,7 @@
         <v>3.530000000000008</v>
       </c>
       <c r="K190" t="n">
-        <v>-23.52941176470579</v>
+        <v>4.761904761905084</v>
       </c>
       <c r="L190" t="n">
         <v>7.062000000000003</v>
@@ -9969,7 +9991,7 @@
         <v>3.540000000000008</v>
       </c>
       <c r="K191" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>7.064000000000003</v>
@@ -10020,7 +10042,7 @@
         <v>3.560000000000008</v>
       </c>
       <c r="K192" t="n">
-        <v>-24.3243243243244</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L192" t="n">
         <v>7.062000000000003</v>
@@ -10071,7 +10093,7 @@
         <v>3.580000000000009</v>
       </c>
       <c r="K193" t="n">
-        <v>-8.571428571428585</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>7.071000000000003</v>
@@ -10122,7 +10144,7 @@
         <v>3.610000000000009</v>
       </c>
       <c r="K194" t="n">
-        <v>-18.91891891891885</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L194" t="n">
         <v>7.071000000000003</v>
@@ -10173,7 +10195,7 @@
         <v>3.630000000000009</v>
       </c>
       <c r="K195" t="n">
-        <v>-21.05263157894725</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L195" t="n">
         <v>7.067000000000005</v>
@@ -10224,7 +10246,7 @@
         <v>3.640000000000009</v>
       </c>
       <c r="K196" t="n">
-        <v>-21.05263157894725</v>
+        <v>-50</v>
       </c>
       <c r="L196" t="n">
         <v>7.061000000000004</v>
@@ -10275,7 +10297,7 @@
         <v>3.640000000000009</v>
       </c>
       <c r="K197" t="n">
-        <v>-21.05263157894725</v>
+        <v>-45.4545454545456</v>
       </c>
       <c r="L197" t="n">
         <v>7.055000000000004</v>
@@ -10326,7 +10348,7 @@
         <v>3.680000000000009</v>
       </c>
       <c r="K198" t="n">
-        <v>-31.70731707317063</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L198" t="n">
         <v>7.046000000000004</v>
@@ -10377,7 +10399,7 @@
         <v>3.690000000000008</v>
       </c>
       <c r="K199" t="n">
-        <v>-21.05263157894735</v>
+        <v>-50</v>
       </c>
       <c r="L199" t="n">
         <v>7.038000000000002</v>
@@ -10428,7 +10450,7 @@
         <v>3.690000000000008</v>
       </c>
       <c r="K200" t="n">
-        <v>-21.05263157894735</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L200" t="n">
         <v>7.030000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>3.700000000000008</v>
       </c>
       <c r="K201" t="n">
-        <v>-21.05263157894716</v>
+        <v>-57.14285714285668</v>
       </c>
       <c r="L201" t="n">
         <v>7.020000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>3.730000000000008</v>
       </c>
       <c r="K202" t="n">
-        <v>-17.94871794871808</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L202" t="n">
         <v>7.015000000000002</v>
@@ -10581,7 +10603,7 @@
         <v>3.740000000000007</v>
       </c>
       <c r="K203" t="n">
-        <v>9.677419354838543</v>
+        <v>-23.0769230769236</v>
       </c>
       <c r="L203" t="n">
         <v>7.009000000000002</v>
@@ -10632,7 +10654,7 @@
         <v>3.740000000000007</v>
       </c>
       <c r="K204" t="n">
-        <v>-12.00000000000014</v>
+        <v>-9.090909090909825</v>
       </c>
       <c r="L204" t="n">
         <v>7.006000000000002</v>
@@ -10683,7 +10705,7 @@
         <v>3.790000000000007</v>
       </c>
       <c r="K205" t="n">
-        <v>-35.7142857142861</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L205" t="n">
         <v>7.000000000000002</v>
@@ -10734,7 +10756,7 @@
         <v>3.790000000000007</v>
       </c>
       <c r="K206" t="n">
-        <v>-40.74074074074105</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L206" t="n">
         <v>6.995000000000002</v>
@@ -10785,7 +10807,7 @@
         <v>3.790000000000007</v>
       </c>
       <c r="K207" t="n">
-        <v>-40.74074074074105</v>
+        <v>-9.090909090909825</v>
       </c>
       <c r="L207" t="n">
         <v>6.990000000000002</v>
@@ -10836,7 +10858,7 @@
         <v>3.790000000000007</v>
       </c>
       <c r="K208" t="n">
-        <v>-38.46153846153883</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L208" t="n">
         <v>6.989000000000002</v>
@@ -10887,7 +10909,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K209" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L209" t="n">
         <v>6.988000000000002</v>
@@ -10938,7 +10960,7 @@
         <v>3.810000000000008</v>
       </c>
       <c r="K210" t="n">
-        <v>-35.71428571428587</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L210" t="n">
         <v>6.986000000000002</v>
@@ -10989,7 +11011,7 @@
         <v>3.830000000000009</v>
       </c>
       <c r="K211" t="n">
-        <v>-31.03448275862054</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L211" t="n">
         <v>6.987000000000002</v>
@@ -11040,7 +11062,7 @@
         <v>3.850000000000009</v>
       </c>
       <c r="K212" t="n">
-        <v>-31.03448275862054</v>
+        <v>-45.45454545454442</v>
       </c>
       <c r="L212" t="n">
         <v>6.983000000000001</v>
@@ -11091,7 +11113,7 @@
         <v>3.91000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-15.15151515151505</v>
+        <v>5.882352941176778</v>
       </c>
       <c r="L213" t="n">
         <v>6.984000000000002</v>
@@ -11142,7 +11164,7 @@
         <v>3.930000000000009</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>57.14285714285624</v>
       </c>
       <c r="L214" t="n">
         <v>6.987000000000002</v>
@@ -11193,7 +11215,7 @@
         <v>3.97000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>-5.882352941176594</v>
+        <v>22.22222222222195</v>
       </c>
       <c r="L215" t="n">
         <v>6.991000000000002</v>
@@ -11244,7 +11266,7 @@
         <v>4.03000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>12.82051282051298</v>
+        <v>41.66666666666639</v>
       </c>
       <c r="L216" t="n">
         <v>7.001000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>4.03000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>12.82051282051298</v>
+        <v>41.66666666666639</v>
       </c>
       <c r="L217" t="n">
         <v>7.011000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>4.040000000000011</v>
       </c>
       <c r="K218" t="n">
-        <v>22.22222222222187</v>
+        <v>33.33333333333259</v>
       </c>
       <c r="L218" t="n">
         <v>7.020000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>4.07000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>10.52631578947365</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L219" t="n">
         <v>7.025000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>4.100000000000009</v>
       </c>
       <c r="K220" t="n">
-        <v>17.07317073170713</v>
+        <v>25.92592592592566</v>
       </c>
       <c r="L220" t="n">
         <v>7.034000000000002</v>
@@ -11499,7 +11521,7 @@
         <v>4.100000000000009</v>
       </c>
       <c r="K221" t="n">
-        <v>19.99999999999973</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L221" t="n">
         <v>7.041000000000002</v>
@@ -11550,7 +11572,7 @@
         <v>4.140000000000009</v>
       </c>
       <c r="K222" t="n">
-        <v>2.439024390243839</v>
+        <v>-4.347826086956824</v>
       </c>
       <c r="L222" t="n">
         <v>7.046000000000002</v>
@@ -11601,7 +11623,7 @@
         <v>4.150000000000009</v>
       </c>
       <c r="K223" t="n">
-        <v>-2.439024390243839</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L223" t="n">
         <v>7.044000000000002</v>
@@ -11652,7 +11674,7 @@
         <v>4.150000000000009</v>
       </c>
       <c r="K224" t="n">
-        <v>-2.439024390243839</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>7.040000000000004</v>
@@ -11703,7 +11725,7 @@
         <v>4.160000000000009</v>
       </c>
       <c r="K225" t="n">
-        <v>8.108108108108134</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L225" t="n">
         <v>7.039000000000003</v>
@@ -11754,7 +11776,7 @@
         <v>4.170000000000009</v>
       </c>
       <c r="K226" t="n">
-        <v>5.26315789473694</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L226" t="n">
         <v>7.031000000000003</v>
@@ -11805,7 +11827,7 @@
         <v>4.170000000000009</v>
       </c>
       <c r="K227" t="n">
-        <v>5.26315789473694</v>
+        <v>-53.84615384615417</v>
       </c>
       <c r="L227" t="n">
         <v>7.023000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>4.270000000000008</v>
       </c>
       <c r="K228" t="n">
-        <v>24.99999999999995</v>
+        <v>30.00000000000004</v>
       </c>
       <c r="L228" t="n">
         <v>7.026000000000002</v>
@@ -11907,7 +11929,7 @@
         <v>4.310000000000008</v>
       </c>
       <c r="K229" t="n">
-        <v>29.41176470588221</v>
+        <v>33.33333333333361</v>
       </c>
       <c r="L229" t="n">
         <v>7.036000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>4.380000000000009</v>
       </c>
       <c r="K230" t="n">
-        <v>40.35087719298251</v>
+        <v>50.00000000000032</v>
       </c>
       <c r="L230" t="n">
         <v>7.050000000000002</v>
@@ -12009,7 +12031,7 @@
         <v>4.470000000000009</v>
       </c>
       <c r="K231" t="n">
-        <v>18.75000000000002</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L231" t="n">
         <v>7.055000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>4.540000000000008</v>
       </c>
       <c r="K232" t="n">
-        <v>30.43478260869571</v>
+        <v>43.5897435897437</v>
       </c>
       <c r="L232" t="n">
         <v>7.071000000000002</v>
@@ -12111,7 +12133,7 @@
         <v>4.560000000000008</v>
       </c>
       <c r="K233" t="n">
-        <v>26.1538461538462</v>
+        <v>46.34146341463433</v>
       </c>
       <c r="L233" t="n">
         <v>7.090000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>4.560000000000008</v>
       </c>
       <c r="K234" t="n">
-        <v>23.8095238095239</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L234" t="n">
         <v>7.109000000000002</v>
@@ -12213,7 +12235,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K235" t="n">
-        <v>23.8095238095239</v>
+        <v>39.53488372093024</v>
       </c>
       <c r="L235" t="n">
         <v>7.125000000000002</v>
@@ -12264,7 +12286,7 @@
         <v>4.690000000000008</v>
       </c>
       <c r="K236" t="n">
-        <v>27.2727272727273</v>
+        <v>50</v>
       </c>
       <c r="L236" t="n">
         <v>7.151000000000002</v>
@@ -12315,7 +12337,7 @@
         <v>4.690000000000008</v>
       </c>
       <c r="K237" t="n">
-        <v>27.2727272727273</v>
+        <v>38.09523809523814</v>
       </c>
       <c r="L237" t="n">
         <v>7.177000000000002</v>
@@ -12366,7 +12388,7 @@
         <v>4.730000000000008</v>
       </c>
       <c r="K238" t="n">
-        <v>33.33333333333351</v>
+        <v>38.09523809523814</v>
       </c>
       <c r="L238" t="n">
         <v>7.197000000000003</v>
@@ -12417,7 +12439,7 @@
         <v>4.760000000000009</v>
       </c>
       <c r="K239" t="n">
-        <v>33.33333333333333</v>
+        <v>15.78947368421043</v>
       </c>
       <c r="L239" t="n">
         <v>7.210000000000004</v>
@@ -12468,7 +12490,7 @@
         <v>4.790000000000008</v>
       </c>
       <c r="K240" t="n">
-        <v>24.63768115942046</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L240" t="n">
         <v>7.213000000000004</v>
@@ -12519,7 +12541,7 @@
         <v>4.840000000000008</v>
       </c>
       <c r="K241" t="n">
-        <v>29.72972972972988</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L241" t="n">
         <v>7.230000000000004</v>
@@ -12570,7 +12592,7 @@
         <v>4.960000000000008</v>
       </c>
       <c r="K242" t="n">
-        <v>17.07317073170742</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L242" t="n">
         <v>7.228000000000003</v>
@@ -12621,7 +12643,7 @@
         <v>4.980000000000008</v>
       </c>
       <c r="K243" t="n">
-        <v>20.48192771084341</v>
+        <v>-4.761904761904883</v>
       </c>
       <c r="L243" t="n">
         <v>7.226000000000004</v>
@@ -12672,7 +12694,7 @@
         <v>5.030000000000007</v>
       </c>
       <c r="K244" t="n">
-        <v>13.63636363636368</v>
+        <v>-6.976744186046588</v>
       </c>
       <c r="L244" t="n">
         <v>7.219000000000003</v>
@@ -12723,7 +12745,7 @@
         <v>5.070000000000007</v>
       </c>
       <c r="K245" t="n">
-        <v>18.68131868131871</v>
+        <v>-21.05263157894744</v>
       </c>
       <c r="L245" t="n">
         <v>7.220000000000003</v>
@@ -12774,7 +12796,7 @@
         <v>5.070000000000007</v>
       </c>
       <c r="K246" t="n">
-        <v>20</v>
+        <v>-21.05263157894744</v>
       </c>
       <c r="L246" t="n">
         <v>7.212000000000003</v>
@@ -12825,7 +12847,7 @@
         <v>5.080000000000007</v>
       </c>
       <c r="K247" t="n">
-        <v>20.87912087912086</v>
+        <v>-31.42857142857163</v>
       </c>
       <c r="L247" t="n">
         <v>7.205000000000004</v>
@@ -12876,7 +12898,7 @@
         <v>5.090000000000008</v>
       </c>
       <c r="K248" t="n">
-        <v>12.19512195121959</v>
+        <v>-21.21212121212108</v>
       </c>
       <c r="L248" t="n">
         <v>7.195000000000003</v>
@@ -12927,7 +12949,7 @@
         <v>5.100000000000008</v>
       </c>
       <c r="K249" t="n">
-        <v>8.860759493670932</v>
+        <v>-9.677419354838802</v>
       </c>
       <c r="L249" t="n">
         <v>7.189000000000003</v>
@@ -12978,7 +13000,7 @@
         <v>5.120000000000008</v>
       </c>
       <c r="K250" t="n">
-        <v>-2.702702702702768</v>
+        <v>-35.71428571428587</v>
       </c>
       <c r="L250" t="n">
         <v>7.184000000000002</v>
@@ -13029,7 +13051,7 @@
         <v>5.120000000000008</v>
       </c>
       <c r="K251" t="n">
-        <v>10.76923076923068</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L251" t="n">
         <v>7.174000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>5.160000000000008</v>
       </c>
       <c r="K252" t="n">
-        <v>6.45161290322581</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L252" t="n">
         <v>7.180000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>5.160000000000008</v>
       </c>
       <c r="K253" t="n">
-        <v>3.333333333333265</v>
+        <v>69.2307692307687</v>
       </c>
       <c r="L253" t="n">
         <v>7.184</v>
@@ -13182,7 +13204,7 @@
         <v>5.200000000000008</v>
       </c>
       <c r="K254" t="n">
-        <v>-3.125000000000074</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L254" t="n">
         <v>7.189000000000002</v>
@@ -13233,7 +13255,7 @@
         <v>5.250000000000009</v>
       </c>
       <c r="K255" t="n">
-        <v>10.76923076923081</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>7.195000000000002</v>
@@ -13284,7 +13306,7 @@
         <v>5.270000000000009</v>
       </c>
       <c r="K256" t="n">
-        <v>-6.896551724137925</v>
+        <v>15.78947368421048</v>
       </c>
       <c r="L256" t="n">
         <v>7.199000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>5.30000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>-1.639344262295044</v>
+        <v>23.80952380952353</v>
       </c>
       <c r="L257" t="n">
         <v>7.205000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>5.310000000000009</v>
       </c>
       <c r="K258" t="n">
-        <v>-10.34482758620681</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L258" t="n">
         <v>7.209000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>5.32000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>-7.142857142857132</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L259" t="n">
         <v>7.211000000000001</v>
@@ -13488,7 +13510,7 @@
         <v>5.34000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>-5.454545454545484</v>
+        <v>9.090909090909239</v>
       </c>
       <c r="L260" t="n">
         <v>7.213000000000003</v>
@@ -13539,7 +13561,7 @@
         <v>5.34000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-15.99999999999996</v>
+        <v>-11.11111111111078</v>
       </c>
       <c r="L261" t="n">
         <v>7.215000000000003</v>
@@ -13590,7 +13612,7 @@
         <v>5.37000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>17.07317073170731</v>
+        <v>4.761904761905044</v>
       </c>
       <c r="L262" t="n">
         <v>7.216000000000004</v>
@@ -13641,7 +13663,7 @@
         <v>5.37000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>12.82051282051292</v>
+        <v>29.41176470588248</v>
       </c>
       <c r="L263" t="n">
         <v>7.217000000000004</v>
@@ -13692,7 +13714,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K264" t="n">
-        <v>35.13513513513492</v>
+        <v>19.99999999999953</v>
       </c>
       <c r="L264" t="n">
         <v>7.225000000000006</v>
@@ -13743,7 +13765,7 @@
         <v>5.460000000000009</v>
       </c>
       <c r="K265" t="n">
-        <v>7.692307692307727</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L265" t="n">
         <v>7.222000000000006</v>
@@ -13794,7 +13816,7 @@
         <v>5.460000000000009</v>
       </c>
       <c r="K266" t="n">
-        <v>7.692307692307727</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L266" t="n">
         <v>7.221000000000006</v>
@@ -13845,7 +13867,7 @@
         <v>5.460000000000009</v>
       </c>
       <c r="K267" t="n">
-        <v>5.26315789473694</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L267" t="n">
         <v>7.217000000000008</v>
@@ -13896,7 +13918,7 @@
         <v>5.470000000000009</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-19.99999999999976</v>
       </c>
       <c r="L268" t="n">
         <v>7.213000000000006</v>
@@ -13947,7 +13969,7 @@
         <v>5.470000000000009</v>
       </c>
       <c r="K269" t="n">
-        <v>-2.702702702702638</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L269" t="n">
         <v>7.210000000000006</v>
@@ -13998,7 +14020,7 @@
         <v>5.510000000000009</v>
       </c>
       <c r="K270" t="n">
-        <v>12.82051282051298</v>
+        <v>17.64705882352966</v>
       </c>
       <c r="L270" t="n">
         <v>7.213000000000006</v>
@@ -14049,7 +14071,7 @@
         <v>5.550000000000009</v>
       </c>
       <c r="K271" t="n">
-        <v>2.325581395348991</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L271" t="n">
         <v>7.212000000000006</v>
@@ -14100,7 +14122,7 @@
         <v>5.580000000000008</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>-4.761904761905124</v>
       </c>
       <c r="L272" t="n">
         <v>7.211000000000006</v>
@@ -14151,7 +14173,7 @@
         <v>5.580000000000008</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L273" t="n">
         <v>7.210000000000005</v>
@@ -14202,7 +14224,7 @@
         <v>5.580000000000008</v>
       </c>
       <c r="K274" t="n">
-        <v>10.5263157894737</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L274" t="n">
         <v>7.206000000000005</v>
@@ -14253,7 +14275,7 @@
         <v>5.580000000000008</v>
       </c>
       <c r="K275" t="n">
-        <v>-3.030303030303243</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L275" t="n">
         <v>7.208000000000004</v>
@@ -14304,7 +14326,7 @@
         <v>5.590000000000008</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L276" t="n">
         <v>7.209000000000003</v>
@@ -14355,7 +14377,7 @@
         <v>5.590000000000008</v>
       </c>
       <c r="K277" t="n">
-        <v>-10.34482758620704</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L277" t="n">
         <v>7.210000000000003</v>
@@ -14406,7 +14428,7 @@
         <v>5.590000000000008</v>
       </c>
       <c r="K278" t="n">
-        <v>-7.142857142857347</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L278" t="n">
         <v>7.212000000000002</v>
@@ -14457,7 +14479,7 @@
         <v>5.650000000000007</v>
       </c>
       <c r="K279" t="n">
-        <v>-21.2121212121212</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L279" t="n">
         <v>7.208000000000003</v>
@@ -14508,7 +14530,7 @@
         <v>5.650000000000007</v>
       </c>
       <c r="K280" t="n">
-        <v>-16.12903225806457</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L280" t="n">
         <v>7.200000000000003</v>
@@ -14559,7 +14581,7 @@
         <v>5.730000000000008</v>
       </c>
       <c r="K281" t="n">
-        <v>-33.33333333333348</v>
+        <v>-100</v>
       </c>
       <c r="L281" t="n">
         <v>7.188000000000002</v>
@@ -14610,7 +14632,7 @@
         <v>5.750000000000008</v>
       </c>
       <c r="K282" t="n">
-        <v>-47.36842105263197</v>
+        <v>-100</v>
       </c>
       <c r="L282" t="n">
         <v>7.171000000000002</v>
@@ -14661,7 +14683,7 @@
         <v>5.760000000000008</v>
       </c>
       <c r="K283" t="n">
-        <v>-43.58974358974403</v>
+        <v>-88.88888888888911</v>
       </c>
       <c r="L283" t="n">
         <v>7.155000000000003</v>
@@ -14712,7 +14734,7 @@
         <v>5.760000000000008</v>
       </c>
       <c r="K284" t="n">
-        <v>-55.55555555555583</v>
+        <v>-88.88888888888911</v>
       </c>
       <c r="L284" t="n">
         <v>7.139000000000003</v>
@@ -14763,7 +14785,7 @@
         <v>5.760000000000008</v>
       </c>
       <c r="K285" t="n">
-        <v>-46.66666666666702</v>
+        <v>-88.2352941176473</v>
       </c>
       <c r="L285" t="n">
         <v>7.123000000000003</v>
@@ -14814,7 +14836,7 @@
         <v>5.780000000000008</v>
       </c>
       <c r="K286" t="n">
-        <v>-37.50000000000011</v>
+        <v>-68.42105263157875</v>
       </c>
       <c r="L286" t="n">
         <v>7.110000000000004</v>
@@ -14865,7 +14887,7 @@
         <v>5.780000000000008</v>
       </c>
       <c r="K287" t="n">
-        <v>-37.50000000000011</v>
+        <v>-68.42105263157875</v>
       </c>
       <c r="L287" t="n">
         <v>7.097000000000004</v>
@@ -14916,7 +14938,7 @@
         <v>5.780000000000008</v>
       </c>
       <c r="K288" t="n">
-        <v>-35.48387096774208</v>
+        <v>-53.84615384615374</v>
       </c>
       <c r="L288" t="n">
         <v>7.084000000000005</v>
@@ -14967,7 +14989,7 @@
         <v>5.780000000000008</v>
       </c>
       <c r="K289" t="n">
-        <v>-35.48387096774208</v>
+        <v>-53.84615384615374</v>
       </c>
       <c r="L289" t="n">
         <v>7.077000000000004</v>
@@ -15018,7 +15040,7 @@
         <v>5.820000000000008</v>
       </c>
       <c r="K290" t="n">
-        <v>-35.48387096774208</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L290" t="n">
         <v>7.074000000000003</v>
@@ -15069,7 +15091,7 @@
         <v>5.840000000000009</v>
       </c>
       <c r="K291" t="n">
-        <v>-31.03448275862094</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L291" t="n">
         <v>7.077000000000004</v>
@@ -15120,7 +15142,7 @@
         <v>5.860000000000009</v>
       </c>
       <c r="K292" t="n">
-        <v>-35.71428571428545</v>
+        <v>59.99999999999964</v>
       </c>
       <c r="L292" t="n">
         <v>7.084000000000005</v>
@@ -15171,7 +15193,7 @@
         <v>5.910000000000009</v>
       </c>
       <c r="K293" t="n">
-        <v>-15.15151515151505</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L293" t="n">
         <v>7.095000000000004</v>
@@ -15222,7 +15244,7 @@
         <v>5.940000000000009</v>
       </c>
       <c r="K294" t="n">
-        <v>-22.22222222222217</v>
+        <v>44.44444444444412</v>
       </c>
       <c r="L294" t="n">
         <v>7.103000000000004</v>
@@ -15273,7 +15295,7 @@
         <v>6.010000000000009</v>
       </c>
       <c r="K295" t="n">
-        <v>-34.88372093023239</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L295" t="n">
         <v>7.104000000000005</v>
@@ -15324,7 +15346,7 @@
         <v>6.060000000000008</v>
       </c>
       <c r="K296" t="n">
-        <v>-19.14893617021271</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L296" t="n">
         <v>7.108000000000006</v>
@@ -15375,7 +15397,7 @@
         <v>6.070000000000008</v>
       </c>
       <c r="K297" t="n">
-        <v>-16.66666666666666</v>
+        <v>17.24137931034477</v>
       </c>
       <c r="L297" t="n">
         <v>7.113000000000005</v>
@@ -15426,7 +15448,7 @@
         <v>6.110000000000008</v>
       </c>
       <c r="K298" t="n">
-        <v>-23.07692307692308</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L298" t="n">
         <v>7.114000000000006</v>
@@ -15477,7 +15499,7 @@
         <v>6.120000000000008</v>
       </c>
       <c r="K299" t="n">
-        <v>-10.63829787234056</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L299" t="n">
         <v>7.116000000000005</v>
@@ -15528,7 +15550,7 @@
         <v>6.150000000000008</v>
       </c>
       <c r="K300" t="n">
-        <v>-4.000000000000085</v>
+        <v>9.677419354838802</v>
       </c>
       <c r="L300" t="n">
         <v>7.117000000000004</v>
@@ -15579,7 +15601,7 @@
         <v>6.150000000000008</v>
       </c>
       <c r="K301" t="n">
-        <v>14.28571428571417</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L301" t="n">
         <v>7.120000000000005</v>
@@ -15630,7 +15652,7 @@
         <v>6.170000000000008</v>
       </c>
       <c r="K302" t="n">
-        <v>14.28571428571441</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L302" t="n">
         <v>7.119000000000004</v>
@@ -15681,7 +15703,7 @@
         <v>6.180000000000008</v>
       </c>
       <c r="K303" t="n">
-        <v>14.28571428571441</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L303" t="n">
         <v>7.114000000000004</v>
@@ -15732,7 +15754,7 @@
         <v>6.200000000000008</v>
       </c>
       <c r="K304" t="n">
-        <v>9.090909090909092</v>
+        <v>15.78947368421023</v>
       </c>
       <c r="L304" t="n">
         <v>7.110000000000004</v>
@@ -15783,7 +15805,7 @@
         <v>6.220000000000008</v>
       </c>
       <c r="K305" t="n">
-        <v>4.347826086956622</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L305" t="n">
         <v>7.111000000000004</v>
@@ -15834,7 +15856,7 @@
         <v>6.230000000000008</v>
       </c>
       <c r="K306" t="n">
-        <v>-2.222222222222178</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L306" t="n">
         <v>7.106000000000003</v>
@@ -15885,7 +15907,7 @@
         <v>6.260000000000007</v>
       </c>
       <c r="K307" t="n">
-        <v>4.16666666666659</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L307" t="n">
         <v>7.103000000000003</v>
@@ -15936,7 +15958,7 @@
         <v>6.260000000000007</v>
       </c>
       <c r="K308" t="n">
-        <v>4.16666666666659</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>7.104000000000002</v>
@@ -15987,7 +16009,7 @@
         <v>6.260000000000007</v>
       </c>
       <c r="K309" t="n">
-        <v>4.16666666666659</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L309" t="n">
         <v>7.104000000000002</v>
@@ -16038,7 +16060,7 @@
         <v>6.280000000000007</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L310" t="n">
         <v>7.103000000000003</v>
@@ -16089,7 +16111,7 @@
         <v>6.300000000000008</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L311" t="n">
         <v>7.100000000000003</v>
@@ -16140,7 +16162,7 @@
         <v>6.310000000000008</v>
       </c>
       <c r="K312" t="n">
-        <v>-6.666666666666746</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L312" t="n">
         <v>7.098000000000003</v>
@@ -16191,7 +16213,7 @@
         <v>6.340000000000008</v>
       </c>
       <c r="K313" t="n">
-        <v>-11.62790697674418</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L313" t="n">
         <v>7.098000000000003</v>
@@ -16242,7 +16264,7 @@
         <v>6.380000000000008</v>
       </c>
       <c r="K314" t="n">
-        <v>4.545454545454665</v>
+        <v>50</v>
       </c>
       <c r="L314" t="n">
         <v>7.104000000000004</v>
@@ -16293,7 +16315,7 @@
         <v>6.390000000000008</v>
       </c>
       <c r="K315" t="n">
-        <v>21.05263157894744</v>
+        <v>50</v>
       </c>
       <c r="L315" t="n">
         <v>7.111000000000004</v>
@@ -16344,7 +16366,7 @@
         <v>6.390000000000008</v>
       </c>
       <c r="K316" t="n">
-        <v>9.090909090909188</v>
+        <v>38.46153846153877</v>
       </c>
       <c r="L316" t="n">
         <v>7.119000000000005</v>
@@ -16395,7 +16417,7 @@
         <v>6.410000000000008</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L317" t="n">
         <v>7.122000000000005</v>
@@ -16446,7 +16468,7 @@
         <v>6.410000000000008</v>
       </c>
       <c r="K318" t="n">
-        <v>13.33333333333335</v>
+        <v>20</v>
       </c>
       <c r="L318" t="n">
         <v>7.125000000000005</v>
@@ -16497,7 +16519,7 @@
         <v>6.410000000000008</v>
       </c>
       <c r="K319" t="n">
-        <v>10.34482758620698</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L319" t="n">
         <v>7.128000000000005</v>
@@ -16548,7 +16570,7 @@
         <v>6.440000000000008</v>
       </c>
       <c r="K320" t="n">
-        <v>-10.34482758620698</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>7.126000000000005</v>
@@ -16599,7 +16621,7 @@
         <v>6.480000000000008</v>
       </c>
       <c r="K321" t="n">
-        <v>3.030303030302965</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L321" t="n">
         <v>7.130000000000005</v>
@@ -16650,7 +16672,7 @@
         <v>6.480000000000008</v>
       </c>
       <c r="K322" t="n">
-        <v>9.677419354838488</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L322" t="n">
         <v>7.135000000000005</v>
@@ -16701,7 +16723,7 @@
         <v>6.490000000000008</v>
       </c>
       <c r="K323" t="n">
-        <v>3.22580645161283</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L323" t="n">
         <v>7.136000000000005</v>
@@ -16752,7 +16774,7 @@
         <v>6.490000000000008</v>
       </c>
       <c r="K324" t="n">
-        <v>10.34482758620698</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L324" t="n">
         <v>7.133000000000004</v>
@@ -16803,7 +16825,7 @@
         <v>6.490000000000008</v>
       </c>
       <c r="K325" t="n">
-        <v>18.51851851851842</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L325" t="n">
         <v>7.131000000000003</v>
@@ -16854,7 +16876,7 @@
         <v>6.490000000000008</v>
       </c>
       <c r="K326" t="n">
-        <v>23.07692307692287</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>7.129000000000002</v>
@@ -16905,7 +16927,7 @@
         <v>6.490000000000008</v>
       </c>
       <c r="K327" t="n">
-        <v>13.0434782608696</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>7.129000000000002</v>
@@ -16956,7 +16978,7 @@
         <v>6.530000000000008</v>
       </c>
       <c r="K328" t="n">
-        <v>-3.703703703703606</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>7.125000000000003</v>
@@ -17058,7 +17080,7 @@
         <v>6.560000000000008</v>
       </c>
       <c r="K330" t="n">
-        <v>-14.28571428571428</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L330" t="n">
         <v>7.120000000000003</v>
@@ -17109,7 +17131,7 @@
         <v>6.590000000000008</v>
       </c>
       <c r="K331" t="n">
-        <v>3.448275862069198</v>
+        <v>-27.27272727272683</v>
       </c>
       <c r="L331" t="n">
         <v>7.117000000000003</v>
@@ -17160,7 +17182,7 @@
         <v>6.620000000000008</v>
       </c>
       <c r="K332" t="n">
-        <v>-3.22580645161283</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L332" t="n">
         <v>7.111000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>6.630000000000008</v>
       </c>
       <c r="K333" t="n">
-        <v>-10.34482758620698</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L333" t="n">
         <v>7.107000000000004</v>
@@ -17262,7 +17284,7 @@
         <v>6.650000000000007</v>
       </c>
       <c r="K334" t="n">
-        <v>-33.33333333333333</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L334" t="n">
         <v>7.101000000000004</v>
@@ -17313,7 +17335,7 @@
         <v>6.680000000000007</v>
       </c>
       <c r="K335" t="n">
-        <v>-17.24137931034512</v>
+        <v>-15.78947368421077</v>
       </c>
       <c r="L335" t="n">
         <v>7.098000000000004</v>
@@ -17364,7 +17386,7 @@
         <v>6.720000000000007</v>
       </c>
       <c r="K336" t="n">
-        <v>-27.27272727272756</v>
+        <v>-30.43478260869595</v>
       </c>
       <c r="L336" t="n">
         <v>7.091000000000006</v>
@@ -17415,7 +17437,7 @@
         <v>6.720000000000007</v>
       </c>
       <c r="K337" t="n">
-        <v>-22.58064516129051</v>
+        <v>-15.78947368421077</v>
       </c>
       <c r="L337" t="n">
         <v>7.084000000000006</v>
@@ -17466,7 +17488,7 @@
         <v>6.720000000000007</v>
       </c>
       <c r="K338" t="n">
-        <v>-22.58064516129051</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L338" t="n">
         <v>7.081000000000006</v>
@@ -17517,7 +17539,7 @@
         <v>6.750000000000007</v>
       </c>
       <c r="K339" t="n">
-        <v>-11.76470588235299</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L339" t="n">
         <v>7.080000000000007</v>
@@ -17568,7 +17590,7 @@
         <v>6.780000000000007</v>
       </c>
       <c r="K340" t="n">
-        <v>-11.76470588235299</v>
+        <v>-26.31578947368465</v>
       </c>
       <c r="L340" t="n">
         <v>7.078000000000007</v>
@@ -17619,7 +17641,7 @@
         <v>6.780000000000007</v>
       </c>
       <c r="K341" t="n">
-        <v>-26.66666666666678</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L341" t="n">
         <v>7.073000000000008</v>
@@ -17670,7 +17692,7 @@
         <v>6.790000000000007</v>
       </c>
       <c r="K342" t="n">
-        <v>-29.0322580645162</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L342" t="n">
         <v>7.070000000000007</v>
@@ -17721,7 +17743,7 @@
         <v>6.830000000000007</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.76470588235299</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L343" t="n">
         <v>7.070000000000007</v>
@@ -17772,7 +17794,7 @@
         <v>6.870000000000007</v>
       </c>
       <c r="K344" t="n">
-        <v>-21.05263157894744</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L344" t="n">
         <v>7.068000000000007</v>
@@ -17823,7 +17845,7 @@
         <v>6.900000000000007</v>
       </c>
       <c r="K345" t="n">
-        <v>-12.19512195121949</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L345" t="n">
         <v>7.066000000000007</v>
@@ -17874,7 +17896,7 @@
         <v>6.940000000000007</v>
       </c>
       <c r="K346" t="n">
-        <v>-20</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L346" t="n">
         <v>7.064000000000007</v>
@@ -17925,7 +17947,7 @@
         <v>6.980000000000008</v>
       </c>
       <c r="K347" t="n">
-        <v>-10.20408163265304</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L347" t="n">
         <v>7.066000000000007</v>
@@ -17976,7 +17998,7 @@
         <v>7.000000000000007</v>
       </c>
       <c r="K348" t="n">
-        <v>2.127659574468045</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L348" t="n">
         <v>7.070000000000006</v>
@@ -18027,7 +18049,7 @@
         <v>7.010000000000008</v>
       </c>
       <c r="K349" t="n">
-        <v>2.12765957446823</v>
+        <v>21.73913043478288</v>
       </c>
       <c r="L349" t="n">
         <v>7.072000000000005</v>
@@ -18078,7 +18100,7 @@
         <v>7.050000000000008</v>
       </c>
       <c r="K350" t="n">
-        <v>-2.040816326530568</v>
+        <v>3.703703703703947</v>
       </c>
       <c r="L350" t="n">
         <v>7.073000000000005</v>
@@ -18129,7 +18151,7 @@
         <v>7.080000000000008</v>
       </c>
       <c r="K351" t="n">
-        <v>-14.28571428571434</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L351" t="n">
         <v>7.071000000000005</v>
@@ -18180,7 +18202,7 @@
         <v>7.090000000000008</v>
       </c>
       <c r="K352" t="n">
-        <v>-10.63829787234039</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L352" t="n">
         <v>7.069000000000005</v>
@@ -18231,7 +18253,7 @@
         <v>7.090000000000008</v>
       </c>
       <c r="K353" t="n">
-        <v>-13.04347826086948</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L353" t="n">
         <v>7.063000000000005</v>
@@ -18282,7 +18304,7 @@
         <v>7.110000000000007</v>
       </c>
       <c r="K354" t="n">
-        <v>-4.347826086956622</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L354" t="n">
         <v>7.063000000000005</v>
@@ -18333,7 +18355,7 @@
         <v>7.130000000000007</v>
       </c>
       <c r="K355" t="n">
-        <v>-15.55555555555542</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L355" t="n">
         <v>7.058000000000005</v>
@@ -18384,7 +18406,7 @@
         <v>7.130000000000007</v>
       </c>
       <c r="K356" t="n">
-        <v>-7.317073170731549</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>7.057000000000005</v>
@@ -18435,7 +18457,7 @@
         <v>7.130000000000007</v>
       </c>
       <c r="K357" t="n">
-        <v>-7.317073170731549</v>
+        <v>-53.84615384615342</v>
       </c>
       <c r="L357" t="n">
         <v>7.052000000000005</v>
@@ -18486,7 +18508,7 @@
         <v>7.150000000000007</v>
       </c>
       <c r="K358" t="n">
-        <v>-2.325581395348789</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L358" t="n">
         <v>7.047000000000006</v>
@@ -18537,7 +18559,7 @@
         <v>7.150000000000007</v>
       </c>
       <c r="K359" t="n">
-        <v>-10.00000000000002</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L359" t="n">
         <v>7.041000000000006</v>
@@ -18588,7 +18610,7 @@
         <v>7.160000000000006</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L360" t="n">
         <v>7.040000000000006</v>
@@ -18639,7 +18661,7 @@
         <v>7.190000000000006</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.317073170731581</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>7.039000000000006</v>
@@ -18690,7 +18712,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K362" t="n">
-        <v>-7.317073170731782</v>
+        <v>-9.090909090909825</v>
       </c>
       <c r="L362" t="n">
         <v>7.038000000000006</v>
@@ -18741,7 +18763,7 @@
         <v>7.220000000000007</v>
       </c>
       <c r="K363" t="n">
-        <v>-12.82051282051279</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L363" t="n">
         <v>7.039000000000006</v>
@@ -18792,7 +18814,7 @@
         <v>7.240000000000007</v>
       </c>
       <c r="K364" t="n">
-        <v>-8.108108108108173</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L364" t="n">
         <v>7.036000000000006</v>
@@ -18843,7 +18865,7 @@
         <v>7.240000000000007</v>
       </c>
       <c r="K365" t="n">
-        <v>-17.64705882352957</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L365" t="n">
         <v>7.035000000000005</v>
@@ -18894,7 +18916,7 @@
         <v>7.260000000000008</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L366" t="n">
         <v>7.036000000000006</v>
@@ -18945,7 +18967,7 @@
         <v>7.300000000000008</v>
       </c>
       <c r="K367" t="n">
-        <v>-25</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L367" t="n">
         <v>7.033000000000006</v>
@@ -18996,7 +19018,7 @@
         <v>7.310000000000008</v>
       </c>
       <c r="K368" t="n">
-        <v>-35.48387096774169</v>
+        <v>-37.49999999999952</v>
       </c>
       <c r="L368" t="n">
         <v>7.027000000000005</v>
@@ -19047,7 +19069,7 @@
         <v>7.320000000000007</v>
       </c>
       <c r="K369" t="n">
-        <v>-41.93548387096776</v>
+        <v>-49.99999999999917</v>
       </c>
       <c r="L369" t="n">
         <v>7.020000000000006</v>
@@ -19098,7 +19120,7 @@
         <v>7.330000000000008</v>
       </c>
       <c r="K370" t="n">
-        <v>-35.71428571428587</v>
+        <v>-42.85714285714249</v>
       </c>
       <c r="L370" t="n">
         <v>7.011000000000005</v>
@@ -19149,7 +19171,7 @@
         <v>7.330000000000008</v>
       </c>
       <c r="K371" t="n">
-        <v>-28.00000000000011</v>
+        <v>-38.46153846153783</v>
       </c>
       <c r="L371" t="n">
         <v>7.005000000000005</v>
@@ -19200,7 +19222,7 @@
         <v>7.360000000000008</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.11111111111118</v>
+        <v>-28.5714285714283</v>
       </c>
       <c r="L372" t="n">
         <v>7.003000000000005</v>
@@ -19251,7 +19273,7 @@
         <v>7.390000000000009</v>
       </c>
       <c r="K373" t="n">
-        <v>-20.00000000000012</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L373" t="n">
         <v>6.996000000000005</v>
@@ -19302,7 +19324,7 @@
         <v>7.390000000000009</v>
       </c>
       <c r="K374" t="n">
-        <v>-28.57142857142848</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L374" t="n">
         <v>6.991000000000005</v>
@@ -19353,7 +19375,7 @@
         <v>7.410000000000009</v>
       </c>
       <c r="K375" t="n">
-        <v>-14.2857142857142</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L375" t="n">
         <v>6.988000000000005</v>
@@ -19404,7 +19426,7 @@
         <v>7.430000000000009</v>
       </c>
       <c r="K376" t="n">
-        <v>-20</v>
+        <v>-23.07692307692297</v>
       </c>
       <c r="L376" t="n">
         <v>6.981000000000004</v>
@@ -19455,7 +19477,7 @@
         <v>7.46000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>-9.090909090909092</v>
+        <v>6.666666666666429</v>
       </c>
       <c r="L377" t="n">
         <v>6.981000000000004</v>
@@ -19506,7 +19528,7 @@
         <v>7.46000000000001</v>
       </c>
       <c r="K378" t="n">
-        <v>-16.12903225806429</v>
+        <v>14.28571428571374</v>
       </c>
       <c r="L378" t="n">
         <v>6.982000000000005</v>
@@ -19557,7 +19579,7 @@
         <v>7.46000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>-16.12903225806429</v>
+        <v>23.07692307692297</v>
       </c>
       <c r="L379" t="n">
         <v>6.984000000000004</v>
@@ -19608,7 +19630,7 @@
         <v>7.46000000000001</v>
       </c>
       <c r="K380" t="n">
-        <v>-19.99999999999964</v>
+        <v>23.07692307692297</v>
       </c>
       <c r="L380" t="n">
         <v>6.987000000000005</v>
@@ -19659,7 +19681,7 @@
         <v>7.480000000000009</v>
       </c>
       <c r="K381" t="n">
-        <v>-17.24137931034456</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L381" t="n">
         <v>6.988000000000005</v>
@@ -19710,7 +19732,7 @@
         <v>7.490000000000009</v>
       </c>
       <c r="K382" t="n">
-        <v>-10.34482758620658</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L382" t="n">
         <v>6.987000000000005</v>
@@ -19761,7 +19783,7 @@
         <v>7.51000000000001</v>
       </c>
       <c r="K383" t="n">
-        <v>-24.13793103448263</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>6.987000000000005</v>
@@ -19812,7 +19834,7 @@
         <v>7.520000000000009</v>
       </c>
       <c r="K384" t="n">
-        <v>-21.42857142857113</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L384" t="n">
         <v>6.986000000000004</v>
@@ -19863,7 +19885,7 @@
         <v>7.530000000000009</v>
       </c>
       <c r="K385" t="n">
-        <v>-24.1379310344824</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L385" t="n">
         <v>6.982000000000005</v>
@@ -19914,7 +19936,7 @@
         <v>7.540000000000009</v>
       </c>
       <c r="K386" t="n">
-        <v>-35.71428571428545</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L386" t="n">
         <v>6.979000000000005</v>
@@ -19965,7 +19987,7 @@
         <v>7.560000000000009</v>
       </c>
       <c r="K387" t="n">
-        <v>-30.76923076923061</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L387" t="n">
         <v>6.971000000000005</v>
@@ -20016,7 +20038,7 @@
         <v>7.560000000000009</v>
       </c>
       <c r="K388" t="n">
-        <v>-27.99999999999991</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L388" t="n">
         <v>6.963000000000005</v>
@@ -20067,7 +20089,7 @@
         <v>7.560000000000009</v>
       </c>
       <c r="K389" t="n">
-        <v>-25</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L389" t="n">
         <v>6.955000000000005</v>
@@ -20118,7 +20140,7 @@
         <v>7.570000000000009</v>
       </c>
       <c r="K390" t="n">
-        <v>-16.6666666666666</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L390" t="n">
         <v>6.948000000000005</v>
@@ -20169,7 +20191,7 @@
         <v>7.640000000000009</v>
       </c>
       <c r="K391" t="n">
-        <v>9.677419354838747</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L391" t="n">
         <v>6.950000000000005</v>
@@ -20220,7 +20242,7 @@
         <v>7.650000000000009</v>
       </c>
       <c r="K392" t="n">
-        <v>3.448275862068881</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L392" t="n">
         <v>6.952000000000005</v>
@@ -20271,7 +20293,7 @@
         <v>7.650000000000009</v>
       </c>
       <c r="K393" t="n">
-        <v>15.38461538461536</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L393" t="n">
         <v>6.956000000000006</v>
@@ -20322,7 +20344,7 @@
         <v>7.660000000000009</v>
       </c>
       <c r="K394" t="n">
-        <v>11.11111111111118</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L394" t="n">
         <v>6.960000000000006</v>
@@ -20373,7 +20395,7 @@
         <v>7.670000000000009</v>
       </c>
       <c r="K395" t="n">
-        <v>7.692307692307534</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L395" t="n">
         <v>6.966000000000006</v>
@@ -20424,7 +20446,7 @@
         <v>7.670000000000009</v>
       </c>
       <c r="K396" t="n">
-        <v>16.66666666666673</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L396" t="n">
         <v>6.973000000000008</v>
@@ -20475,7 +20497,7 @@
         <v>7.700000000000009</v>
       </c>
       <c r="K397" t="n">
-        <v>16.66666666666673</v>
+        <v>85.71428571428599</v>
       </c>
       <c r="L397" t="n">
         <v>6.985000000000008</v>
@@ -20526,7 +20548,7 @@
         <v>7.710000000000009</v>
       </c>
       <c r="K398" t="n">
-        <v>20</v>
+        <v>86.6666666666669</v>
       </c>
       <c r="L398" t="n">
         <v>6.998000000000007</v>
@@ -20577,7 +20599,7 @@
         <v>7.740000000000009</v>
       </c>
       <c r="K399" t="n">
-        <v>7.142857142857006</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L399" t="n">
         <v>7.008000000000007</v>
@@ -20628,7 +20650,7 @@
         <v>7.780000000000009</v>
       </c>
       <c r="K400" t="n">
-        <v>18.74999999999991</v>
+        <v>42.85714285714268</v>
       </c>
       <c r="L400" t="n">
         <v>7.021000000000006</v>
@@ -20679,7 +20701,7 @@
         <v>7.790000000000009</v>
       </c>
       <c r="K401" t="n">
-        <v>22.58064516129016</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L401" t="n">
         <v>7.026000000000006</v>
@@ -20730,7 +20752,7 @@
         <v>7.810000000000008</v>
       </c>
       <c r="K402" t="n">
-        <v>12.50000000000004</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L402" t="n">
         <v>7.028000000000006</v>
@@ -20781,7 +20803,7 @@
         <v>7.830000000000009</v>
       </c>
       <c r="K403" t="n">
-        <v>12.50000000000004</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L403" t="n">
         <v>7.028000000000006</v>
@@ -20832,7 +20854,7 @@
         <v>7.870000000000009</v>
       </c>
       <c r="K404" t="n">
-        <v>25.7142857142857</v>
+        <v>20</v>
       </c>
       <c r="L404" t="n">
         <v>7.033000000000006</v>
@@ -20883,7 +20905,7 @@
         <v>7.870000000000009</v>
       </c>
       <c r="K405" t="n">
-        <v>29.41176470588226</v>
+        <v>20</v>
       </c>
       <c r="L405" t="n">
         <v>7.037000000000004</v>
@@ -20934,7 +20956,7 @@
         <v>7.870000000000009</v>
       </c>
       <c r="K406" t="n">
-        <v>33.33333333333315</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L406" t="n">
         <v>7.041000000000004</v>
@@ -20985,7 +21007,7 @@
         <v>7.870000000000009</v>
       </c>
       <c r="K407" t="n">
-        <v>41.93548387096776</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>7.042000000000003</v>
@@ -21036,7 +21058,7 @@
         <v>7.870000000000009</v>
       </c>
       <c r="K408" t="n">
-        <v>41.93548387096776</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L408" t="n">
         <v>7.042000000000003</v>
@@ -21087,7 +21109,7 @@
         <v>7.880000000000009</v>
       </c>
       <c r="K409" t="n">
-        <v>37.50000000000011</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L409" t="n">
         <v>7.044000000000004</v>
@@ -21138,7 +21160,7 @@
         <v>7.910000000000009</v>
       </c>
       <c r="K410" t="n">
-        <v>41.17647058823548</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L410" t="n">
         <v>7.045000000000004</v>
@@ -21189,7 +21211,7 @@
         <v>7.92000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>21.42857142857127</v>
+        <v>27.27272727272639</v>
       </c>
       <c r="L411" t="n">
         <v>7.046000000000005</v>
@@ -21240,7 +21262,7 @@
         <v>7.97000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>31.25000000000005</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L412" t="n">
         <v>7.054000000000005</v>
@@ -21291,7 +21313,7 @@
         <v>7.97000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>31.25000000000005</v>
+        <v>59.99999999999964</v>
       </c>
       <c r="L413" t="n">
         <v>7.064000000000004</v>
@@ -21342,7 +21364,7 @@
         <v>8.02000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>16.6666666666665</v>
+        <v>6.66666666666647</v>
       </c>
       <c r="L414" t="n">
         <v>7.065000000000005</v>
@@ -21393,7 +21415,7 @@
         <v>8.04000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>18.91891891891894</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L415" t="n">
         <v>7.068000000000005</v>
@@ -21444,7 +21466,7 @@
         <v>8.070000000000011</v>
       </c>
       <c r="K416" t="n">
-        <v>25</v>
+        <v>29.99999999999995</v>
       </c>
       <c r="L416" t="n">
         <v>7.074000000000005</v>
@@ -21495,7 +21517,7 @@
         <v>8.090000000000011</v>
       </c>
       <c r="K417" t="n">
-        <v>23.07692307692295</v>
+        <v>36.36363636363614</v>
       </c>
       <c r="L417" t="n">
         <v>7.082000000000005</v>
@@ -21546,7 +21568,7 @@
         <v>8.11000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>25.00000000000006</v>
+        <v>47.82608695652161</v>
       </c>
       <c r="L418" t="n">
         <v>7.092000000000006</v>
@@ -21597,7 +21619,7 @@
         <v>8.13000000000001</v>
       </c>
       <c r="K419" t="n">
-        <v>38.4615384615385</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L419" t="n">
         <v>7.105000000000006</v>
@@ -21648,7 +21670,7 @@
         <v>8.170000000000009</v>
       </c>
       <c r="K420" t="n">
-        <v>17.94871794871804</v>
+        <v>28.00000000000021</v>
       </c>
       <c r="L420" t="n">
         <v>7.111000000000004</v>
@@ -21699,7 +21721,7 @@
         <v>8.240000000000009</v>
       </c>
       <c r="K421" t="n">
-        <v>33.3333333333334</v>
+        <v>33.33333333333344</v>
       </c>
       <c r="L421" t="n">
         <v>7.125000000000004</v>
@@ -21750,7 +21772,7 @@
         <v>8.29000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>24.99999999999995</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L422" t="n">
         <v>7.129000000000005</v>
@@ -21801,7 +21823,7 @@
         <v>8.340000000000011</v>
       </c>
       <c r="K423" t="n">
-        <v>37.25490196078427</v>
+        <v>43.75000000000014</v>
       </c>
       <c r="L423" t="n">
         <v>7.138000000000005</v>
@@ -21852,7 +21874,7 @@
         <v>8.370000000000012</v>
       </c>
       <c r="K424" t="n">
-        <v>23.99999999999989</v>
+        <v>27.27272727272708</v>
       </c>
       <c r="L424" t="n">
         <v>7.149000000000005</v>
@@ -21903,7 +21925,7 @@
         <v>8.390000000000011</v>
       </c>
       <c r="K425" t="n">
-        <v>26.92307692307692</v>
+        <v>25</v>
       </c>
       <c r="L425" t="n">
         <v>7.160000000000005</v>
@@ -21954,7 +21976,7 @@
         <v>8.43000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>32.14285714285717</v>
+        <v>29.41176470588252</v>
       </c>
       <c r="L426" t="n">
         <v>7.172000000000006</v>
@@ -22005,7 +22027,7 @@
         <v>8.44000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L427" t="n">
         <v>7.183000000000005</v>
@@ -22056,7 +22078,7 @@
         <v>8.460000000000012</v>
       </c>
       <c r="K428" t="n">
-        <v>28.81355932203376</v>
+        <v>15.15151515151501</v>
       </c>
       <c r="L428" t="n">
         <v>7.190000000000005</v>
@@ -22107,7 +22129,7 @@
         <v>8.490000000000011</v>
       </c>
       <c r="K429" t="n">
-        <v>24.5901639344262</v>
+        <v>18.75000000000003</v>
       </c>
       <c r="L429" t="n">
         <v>7.192000000000005</v>
@@ -22158,7 +22180,7 @@
         <v>8.51000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>23.33333333333323</v>
+        <v>3.703703703703606</v>
       </c>
       <c r="L430" t="n">
         <v>7.200000000000005</v>
@@ -22209,7 +22231,7 @@
         <v>8.53000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>21.31147540983618</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L431" t="n">
         <v>7.199000000000003</v>
@@ -22260,7 +22282,7 @@
         <v>8.54000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>12.28070175438587</v>
+        <v>-10.00000000000027</v>
       </c>
       <c r="L432" t="n">
         <v>7.202000000000004</v>
@@ -22311,7 +22333,7 @@
         <v>8.570000000000011</v>
       </c>
       <c r="K433" t="n">
-        <v>16.66666666666659</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L433" t="n">
         <v>7.203000000000003</v>
@@ -22362,7 +22384,7 @@
         <v>8.580000000000011</v>
       </c>
       <c r="K434" t="n">
-        <v>25.00000000000008</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L434" t="n">
         <v>7.206000000000003</v>
@@ -22413,7 +22435,7 @@
         <v>8.590000000000011</v>
       </c>
       <c r="K435" t="n">
-        <v>23.63636363636359</v>
+        <v>-12.50000000000028</v>
       </c>
       <c r="L435" t="n">
         <v>7.208000000000003</v>
@@ -22464,7 +22486,7 @@
         <v>8.590000000000011</v>
       </c>
       <c r="K436" t="n">
-        <v>19.23076923076918</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L436" t="n">
         <v>7.206000000000001</v>
@@ -22515,7 +22537,7 @@
         <v>8.60000000000001</v>
       </c>
       <c r="K437" t="n">
-        <v>17.64705882352939</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>7.204000000000002</v>
@@ -22566,7 +22588,7 @@
         <v>8.60000000000001</v>
       </c>
       <c r="K438" t="n">
-        <v>14.28571428571416</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L438" t="n">
         <v>7.204000000000002</v>
@@ -22617,7 +22639,7 @@
         <v>8.620000000000012</v>
       </c>
       <c r="K439" t="n">
-        <v>14.28571428571428</v>
+        <v>27.2727272727272</v>
       </c>
       <c r="L439" t="n">
         <v>7.209000000000001</v>
@@ -22668,7 +22690,7 @@
         <v>8.650000000000011</v>
       </c>
       <c r="K440" t="n">
-        <v>29.16666666666647</v>
+        <v>66.66666666666544</v>
       </c>
       <c r="L440" t="n">
         <v>7.215000000000002</v>
@@ -22719,7 +22741,7 @@
         <v>8.68000000000001</v>
       </c>
       <c r="K441" t="n">
-        <v>9.090909090909074</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L441" t="n">
         <v>7.220000000000002</v>
@@ -22770,7 +22792,7 @@
         <v>8.72000000000001</v>
       </c>
       <c r="K442" t="n">
-        <v>30.23255813953488</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L442" t="n">
         <v>7.230000000000001</v>
@@ -22821,7 +22843,7 @@
         <v>8.730000000000009</v>
       </c>
       <c r="K443" t="n">
-        <v>23.07692307692311</v>
+        <v>60.00000000000048</v>
       </c>
       <c r="L443" t="n">
         <v>7.238000000000002</v>
@@ -22872,7 +22894,7 @@
         <v>8.77000000000001</v>
       </c>
       <c r="K444" t="n">
-        <v>40.00000000000018</v>
+        <v>66.66666666666683</v>
       </c>
       <c r="L444" t="n">
         <v>7.251000000000002</v>
@@ -22923,7 +22945,7 @@
         <v>8.88000000000001</v>
       </c>
       <c r="K445" t="n">
-        <v>51.02040816326547</v>
+        <v>79.31034482758659</v>
       </c>
       <c r="L445" t="n">
         <v>7.274000000000003</v>
@@ -22974,7 +22996,7 @@
         <v>8.910000000000011</v>
       </c>
       <c r="K446" t="n">
-        <v>37.49999999999991</v>
+        <v>61.29032258064518</v>
       </c>
       <c r="L446" t="n">
         <v>7.294000000000002</v>
@@ -23025,7 +23047,7 @@
         <v>8.910000000000011</v>
       </c>
       <c r="K447" t="n">
-        <v>36.17021276595738</v>
+        <v>61.29032258064518</v>
       </c>
       <c r="L447" t="n">
         <v>7.313000000000002</v>
@@ -23076,7 +23098,7 @@
         <v>8.940000000000012</v>
       </c>
       <c r="K448" t="n">
-        <v>33.33333333333333</v>
+        <v>43.74999999999986</v>
       </c>
       <c r="L448" t="n">
         <v>7.329000000000002</v>
@@ -23127,7 +23149,7 @@
         <v>8.990000000000013</v>
       </c>
       <c r="K449" t="n">
-        <v>47.99999999999969</v>
+        <v>47.05882352941158</v>
       </c>
       <c r="L449" t="n">
         <v>7.348000000000003</v>
@@ -23178,7 +23200,7 @@
         <v>9.010000000000012</v>
       </c>
       <c r="K450" t="n">
-        <v>47.99999999999987</v>
+        <v>63.63636363636327</v>
       </c>
       <c r="L450" t="n">
         <v>7.366000000000004</v>
@@ -23229,7 +23251,7 @@
         <v>9.020000000000012</v>
       </c>
       <c r="K451" t="n">
-        <v>51.0204081632651</v>
+        <v>53.33333333333294</v>
       </c>
       <c r="L451" t="n">
         <v>7.386000000000005</v>
@@ -23280,7 +23302,7 @@
         <v>9.030000000000012</v>
       </c>
       <c r="K452" t="n">
-        <v>55.1020408163264</v>
+        <v>53.33333333333294</v>
       </c>
       <c r="L452" t="n">
         <v>7.403000000000004</v>
@@ -23331,7 +23353,7 @@
         <v>9.160000000000011</v>
       </c>
       <c r="K453" t="n">
-        <v>18.64406779661023</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L453" t="n">
         <v>7.406000000000004</v>
@@ -23382,7 +23404,7 @@
         <v>9.240000000000011</v>
       </c>
       <c r="K454" t="n">
-        <v>30.30303030303033</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L454" t="n">
         <v>7.413000000000006</v>
@@ -23433,7 +23455,7 @@
         <v>9.240000000000011</v>
       </c>
       <c r="K455" t="n">
-        <v>29.23076923076928</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L455" t="n">
         <v>7.409000000000006</v>
@@ -23484,7 +23506,7 @@
         <v>9.290000000000012</v>
       </c>
       <c r="K456" t="n">
-        <v>19.99999999999992</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L456" t="n">
         <v>7.403000000000006</v>
@@ -23535,7 +23557,7 @@
         <v>9.290000000000012</v>
       </c>
       <c r="K457" t="n">
-        <v>18.84057971014488</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L457" t="n">
         <v>7.397000000000006</v>
@@ -23586,7 +23608,7 @@
         <v>9.340000000000011</v>
       </c>
       <c r="K458" t="n">
-        <v>10.81081081081082</v>
+        <v>-37.14285714285734</v>
       </c>
       <c r="L458" t="n">
         <v>7.389000000000006</v>
@@ -23637,7 +23659,7 @@
         <v>9.38000000000001</v>
       </c>
       <c r="K459" t="n">
-        <v>13.15789473684209</v>
+        <v>-29.72972972973002</v>
       </c>
       <c r="L459" t="n">
         <v>7.380000000000007</v>
@@ -23688,7 +23710,7 @@
         <v>9.38000000000001</v>
       </c>
       <c r="K460" t="n">
-        <v>9.589041095890467</v>
+        <v>-27.77777777777811</v>
       </c>
       <c r="L460" t="n">
         <v>7.369000000000007</v>
@@ -23739,7 +23761,7 @@
         <v>9.420000000000009</v>
       </c>
       <c r="K461" t="n">
-        <v>18.91891891891892</v>
+        <v>-17.94871794871816</v>
       </c>
       <c r="L461" t="n">
         <v>7.363000000000007</v>
@@ -23790,7 +23812,7 @@
         <v>9.490000000000009</v>
       </c>
       <c r="K462" t="n">
-        <v>3.896103896103816</v>
+        <v>-3.030303030303251</v>
       </c>
       <c r="L462" t="n">
         <v>7.349000000000006</v>
@@ -23841,7 +23863,7 @@
         <v>9.560000000000009</v>
       </c>
       <c r="K463" t="n">
-        <v>10.84337349397589</v>
+        <v>-6.250000000000173</v>
       </c>
       <c r="L463" t="n">
         <v>7.355000000000007</v>
@@ -23892,7 +23914,7 @@
         <v>9.62000000000001</v>
       </c>
       <c r="K464" t="n">
-        <v>12.94117647058828</v>
+        <v>10.52631578947372</v>
       </c>
       <c r="L464" t="n">
         <v>7.359000000000006</v>
@@ -23943,7 +23965,7 @@
         <v>9.660000000000011</v>
       </c>
       <c r="K465" t="n">
-        <v>-5.128205128205125</v>
+        <v>13.51351351351373</v>
       </c>
       <c r="L465" t="n">
         <v>7.359000000000006</v>
@@ -23994,7 +24016,7 @@
         <v>9.670000000000012</v>
       </c>
       <c r="K466" t="n">
-        <v>-2.631578947368476</v>
+        <v>10.52631578947367</v>
       </c>
       <c r="L466" t="n">
         <v>7.363000000000007</v>
@@ -24045,7 +24067,7 @@
         <v>9.680000000000014</v>
       </c>
       <c r="K467" t="n">
-        <v>-1.298701298701266</v>
+        <v>29.41176470588222</v>
       </c>
       <c r="L467" t="n">
         <v>7.368000000000007</v>
@@ -24096,7 +24118,7 @@
         <v>9.700000000000014</v>
       </c>
       <c r="K468" t="n">
-        <v>5.263157894736836</v>
+        <v>24.99999999999972</v>
       </c>
       <c r="L468" t="n">
         <v>7.380000000000008</v>
@@ -24147,7 +24169,7 @@
         <v>9.700000000000014</v>
       </c>
       <c r="K469" t="n">
-        <v>-1.40845070422532</v>
+        <v>24.99999999999972</v>
       </c>
       <c r="L469" t="n">
         <v>7.388000000000008</v>
@@ -24198,7 +24220,7 @@
         <v>9.730000000000015</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>22.58064516128999</v>
       </c>
       <c r="L470" t="n">
         <v>7.399000000000008</v>
@@ -24249,7 +24271,7 @@
         <v>9.730000000000015</v>
       </c>
       <c r="K471" t="n">
-        <v>1.408450704225317</v>
+        <v>58.33333333333223</v>
       </c>
       <c r="L471" t="n">
         <v>7.406000000000009</v>
@@ -24300,7 +24322,7 @@
         <v>9.730000000000015</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>41.17647058823419</v>
       </c>
       <c r="L472" t="n">
         <v>7.420000000000009</v>
@@ -24351,7 +24373,7 @@
         <v>9.740000000000014</v>
       </c>
       <c r="K473" t="n">
-        <v>24.13793103448255</v>
+        <v>16.66666666666568</v>
       </c>
       <c r="L473" t="n">
         <v>7.428000000000009</v>
@@ -24402,7 +24424,7 @@
         <v>9.750000000000014</v>
       </c>
       <c r="K474" t="n">
-        <v>9.803921568627352</v>
+        <v>55.55555555555325</v>
       </c>
       <c r="L474" t="n">
         <v>7.429000000000009</v>
@@ -24453,7 +24475,7 @@
         <v>9.750000000000014</v>
       </c>
       <c r="K475" t="n">
-        <v>9.803921568627352</v>
+        <v>74.99999999999889</v>
       </c>
       <c r="L475" t="n">
         <v>7.434000000000009</v>
@@ -24504,7 +24526,7 @@
         <v>9.750000000000014</v>
       </c>
       <c r="K476" t="n">
-        <v>21.7391304347826</v>
+        <v>71.42857142857089</v>
       </c>
       <c r="L476" t="n">
         <v>7.440000000000009</v>
@@ -24555,7 +24577,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K477" t="n">
-        <v>29.41176470588223</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L477" t="n">
         <v>7.450000000000008</v>
@@ -24606,7 +24628,7 @@
         <v>9.850000000000016</v>
       </c>
       <c r="K478" t="n">
-        <v>29.41176470588213</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L478" t="n">
         <v>7.453000000000008</v>
@@ -24657,7 +24679,7 @@
         <v>9.910000000000014</v>
       </c>
       <c r="K479" t="n">
-        <v>32.07547169811291</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L479" t="n">
         <v>7.462000000000009</v>
@@ -24708,7 +24730,7 @@
         <v>9.930000000000014</v>
       </c>
       <c r="K480" t="n">
-        <v>34.54545454545435</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L480" t="n">
         <v>7.470000000000009</v>
@@ -24759,7 +24781,7 @@
         <v>9.940000000000014</v>
       </c>
       <c r="K481" t="n">
-        <v>30.7692307692305</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L481" t="n">
         <v>7.479000000000009</v>
@@ -24810,7 +24832,7 @@
         <v>9.980000000000015</v>
       </c>
       <c r="K482" t="n">
-        <v>55.102040816326</v>
+        <v>50</v>
       </c>
       <c r="L482" t="n">
         <v>7.492000000000009</v>
@@ -24861,7 +24883,7 @@
         <v>9.990000000000014</v>
       </c>
       <c r="K483" t="n">
-        <v>44.18604651162748</v>
+        <v>50</v>
       </c>
       <c r="L483" t="n">
         <v>7.50300000000001</v>
@@ -24912,7 +24934,7 @@
         <v>10.05000000000001</v>
       </c>
       <c r="K484" t="n">
-        <v>16.27906976744153</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L484" t="n">
         <v>7.50900000000001</v>
@@ -24963,7 +24985,7 @@
         <v>10.06000000000001</v>
       </c>
       <c r="K485" t="n">
-        <v>29.99999999999951</v>
+        <v>22.58064516129009</v>
       </c>
       <c r="L485" t="n">
         <v>7.51600000000001</v>
@@ -25014,7 +25036,7 @@
         <v>10.06000000000001</v>
       </c>
       <c r="K486" t="n">
-        <v>33.3333333333331</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L486" t="n">
         <v>7.523000000000009</v>
@@ -25065,7 +25087,7 @@
         <v>10.07000000000001</v>
       </c>
       <c r="K487" t="n">
-        <v>33.33333333333326</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L487" t="n">
         <v>7.526000000000009</v>
@@ -25116,7 +25138,7 @@
         <v>10.11000000000001</v>
       </c>
       <c r="K488" t="n">
-        <v>17.07317073170738</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L488" t="n">
         <v>7.530000000000008</v>
@@ -25167,7 +25189,7 @@
         <v>10.14000000000001</v>
       </c>
       <c r="K489" t="n">
-        <v>22.72727272727267</v>
+        <v>-4.761904761905105</v>
       </c>
       <c r="L489" t="n">
         <v>7.531000000000008</v>
@@ -25218,7 +25240,7 @@
         <v>10.15000000000001</v>
       </c>
       <c r="K490" t="n">
-        <v>14.28571428571425</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L490" t="n">
         <v>7.529000000000008</v>
@@ -25269,7 +25291,7 @@
         <v>10.21000000000001</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>-56.5217391304355</v>
       </c>
       <c r="L491" t="n">
         <v>7.520000000000008</v>
@@ -25320,7 +25342,7 @@
         <v>10.21000000000001</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>-54.54545454545532</v>
       </c>
       <c r="L492" t="n">
         <v>7.507000000000008</v>
@@ -25371,7 +25393,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K493" t="n">
-        <v>7.692307692307732</v>
+        <v>-4.761904761904721</v>
       </c>
       <c r="L493" t="n">
         <v>7.500000000000009</v>
@@ -25422,7 +25444,7 @@
         <v>10.27000000000001</v>
       </c>
       <c r="K494" t="n">
-        <v>11.53846153846151</v>
+        <v>-4.761904761904721</v>
       </c>
       <c r="L494" t="n">
         <v>7.500000000000009</v>
@@ -25473,7 +25495,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K495" t="n">
-        <v>5.454545454545528</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L495" t="n">
         <v>7.496000000000009</v>
@@ -25524,7 +25546,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K496" t="n">
-        <v>5.454545454545528</v>
+        <v>-21.73913043478283</v>
       </c>
       <c r="L496" t="n">
         <v>7.49200000000001</v>
@@ -25575,7 +25597,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K497" t="n">
-        <v>-3.999999999999943</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L497" t="n">
         <v>7.487000000000011</v>
@@ -25626,7 +25648,7 @@
         <v>10.38000000000001</v>
       </c>
       <c r="K498" t="n">
-        <v>-9.433962264150985</v>
+        <v>-50</v>
       </c>
       <c r="L498" t="n">
         <v>7.478000000000011</v>
@@ -25677,7 +25699,7 @@
         <v>10.38000000000001</v>
       </c>
       <c r="K499" t="n">
-        <v>-23.40425531914896</v>
+        <v>-47.82608695652178</v>
       </c>
       <c r="L499" t="n">
         <v>7.466000000000013</v>
@@ -25728,7 +25750,7 @@
         <v>10.39000000000001</v>
       </c>
       <c r="K500" t="n">
-        <v>-30.43478260869595</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L500" t="n">
         <v>7.454000000000012</v>
@@ -25779,7 +25801,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K501" t="n">
-        <v>-30.43478260869564</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L501" t="n">
         <v>7.449000000000012</v>
@@ -25830,7 +25852,7 @@
         <v>10.41000000000001</v>
       </c>
       <c r="K502" t="n">
-        <v>-39.53488372093041</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L502" t="n">
         <v>7.445000000000012</v>
@@ -25881,7 +25903,7 @@
         <v>10.43000000000001</v>
       </c>
       <c r="K503" t="n">
-        <v>-40.90909090909109</v>
+        <v>-74.99999999999916</v>
       </c>
       <c r="L503" t="n">
         <v>7.434000000000012</v>
@@ -25932,7 +25954,7 @@
         <v>10.43000000000001</v>
       </c>
       <c r="K504" t="n">
-        <v>-31.57894736842116</v>
+        <v>-69.23076923076844</v>
       </c>
       <c r="L504" t="n">
         <v>7.422000000000011</v>
@@ -25983,7 +26005,7 @@
         <v>10.44000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>-31.57894736842078</v>
+        <v>-57.1428571428555</v>
       </c>
       <c r="L505" t="n">
         <v>7.414000000000011</v>
@@ -26034,7 +26056,7 @@
         <v>10.49000000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>-39.53488372093008</v>
+        <v>-68.42105263157762</v>
       </c>
       <c r="L506" t="n">
         <v>7.40100000000001</v>
@@ -26085,7 +26107,7 @@
         <v>10.54000000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>-48.93617021276579</v>
+        <v>-62.4999999999982</v>
       </c>
       <c r="L507" t="n">
         <v>7.38300000000001</v>
@@ -26136,7 +26158,7 @@
         <v>10.57000000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>-34.78260869565187</v>
+        <v>-36.84210526315676</v>
       </c>
       <c r="L508" t="n">
         <v>7.376000000000009</v>
@@ -26187,7 +26209,7 @@
         <v>10.59000000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>-46.66666666666618</v>
+        <v>-39.99999999999876</v>
       </c>
       <c r="L509" t="n">
         <v>7.367000000000009</v>
@@ -26238,7 +26260,7 @@
         <v>10.63000000000002</v>
       </c>
       <c r="K510" t="n">
-        <v>-33.33333333333309</v>
+        <v>-21.73913043478254</v>
       </c>
       <c r="L510" t="n">
         <v>7.363000000000008</v>
@@ -26289,7 +26311,7 @@
         <v>10.67000000000002</v>
       </c>
       <c r="K511" t="n">
-        <v>-13.04347826086955</v>
+        <v>-7.692307692307771</v>
       </c>
       <c r="L511" t="n">
         <v>7.362000000000007</v>
@@ -26340,7 +26362,7 @@
         <v>10.70000000000002</v>
       </c>
       <c r="K512" t="n">
-        <v>-18.36734693877534</v>
+        <v>-11.11111111111082</v>
       </c>
       <c r="L512" t="n">
         <v>7.357000000000008</v>
@@ -26391,7 +26413,7 @@
         <v>10.75000000000001</v>
       </c>
       <c r="K513" t="n">
-        <v>-18.36734693877541</v>
+        <v>6.250000000000139</v>
       </c>
       <c r="L513" t="n">
         <v>7.359000000000007</v>
@@ -26442,7 +26464,7 @@
         <v>10.75000000000001</v>
       </c>
       <c r="K514" t="n">
-        <v>-20.83333333333317</v>
+        <v>3.225806451612848</v>
       </c>
       <c r="L514" t="n">
         <v>7.361000000000007</v>
@@ -26493,7 +26515,7 @@
         <v>10.81000000000001</v>
       </c>
       <c r="K515" t="n">
-        <v>-25.49019607843136</v>
+        <v>0</v>
       </c>
       <c r="L515" t="n">
         <v>7.356000000000006</v>
@@ -26544,7 +26566,7 @@
         <v>10.86000000000002</v>
       </c>
       <c r="K516" t="n">
-        <v>-14.2857142857142</v>
+        <v>31.25000000000031</v>
       </c>
       <c r="L516" t="n">
         <v>7.361000000000007</v>
@@ -26595,7 +26617,7 @@
         <v>10.87000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>-12.28070175438593</v>
+        <v>26.66666666666694</v>
       </c>
       <c r="L517" t="n">
         <v>7.372000000000007</v>
@@ -26646,7 +26668,7 @@
         <v>10.94000000000002</v>
       </c>
       <c r="K518" t="n">
-        <v>-10.71428571428573</v>
+        <v>8.571428571428696</v>
       </c>
       <c r="L518" t="n">
         <v>7.373000000000007</v>
@@ -26697,7 +26719,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K519" t="n">
-        <v>0</v>
+        <v>13.51351351351373</v>
       </c>
       <c r="L519" t="n">
         <v>7.382000000000008</v>
@@ -26748,7 +26770,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K520" t="n">
-        <v>1.63934426229518</v>
+        <v>3.030303030303234</v>
       </c>
       <c r="L520" t="n">
         <v>7.387000000000009</v>
@@ -26799,7 +26821,7 @@
         <v>11.08000000000002</v>
       </c>
       <c r="K521" t="n">
-        <v>-11.7647058823529</v>
+        <v>-10.52631578947367</v>
       </c>
       <c r="L521" t="n">
         <v>7.380000000000008</v>
@@ -26850,7 +26872,7 @@
         <v>11.08000000000002</v>
       </c>
       <c r="K522" t="n">
-        <v>-13.43283582089543</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L522" t="n">
         <v>7.376000000000009</v>
@@ -26901,7 +26923,7 @@
         <v>11.09000000000002</v>
       </c>
       <c r="K523" t="n">
-        <v>-12.12121212121206</v>
+        <v>-29.41176470588222</v>
       </c>
       <c r="L523" t="n">
         <v>7.366000000000009</v>
@@ -26952,7 +26974,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>-13.43283582089543</v>
+        <v>-17.24137931034461</v>
       </c>
       <c r="L524" t="n">
         <v>7.355000000000009</v>
@@ -27054,7 +27076,7 @@
         <v>11.21000000000002</v>
       </c>
       <c r="K526" t="n">
-        <v>8.333333333333396</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>7.36100000000001</v>
@@ -27105,7 +27127,7 @@
         <v>11.26000000000002</v>
       </c>
       <c r="K527" t="n">
-        <v>8.333333333333416</v>
+        <v>6.250000000000139</v>
       </c>
       <c r="L527" t="n">
         <v>7.356000000000011</v>
@@ -27156,7 +27178,7 @@
         <v>11.26000000000002</v>
       </c>
       <c r="K528" t="n">
-        <v>4.347826086956572</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L528" t="n">
         <v>7.358000000000009</v>
@@ -27207,7 +27229,7 @@
         <v>11.28000000000002</v>
       </c>
       <c r="K529" t="n">
-        <v>4.347826086956572</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L529" t="n">
         <v>7.352000000000009</v>
@@ -27258,7 +27280,7 @@
         <v>11.31000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.882352941176478</v>
+        <v>-4.347826086956808</v>
       </c>
       <c r="L530" t="n">
         <v>7.343000000000009</v>
@@ -27309,7 +27331,7 @@
         <v>11.36000000000002</v>
       </c>
       <c r="K531" t="n">
-        <v>-4.347826086956421</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L531" t="n">
         <v>7.347000000000008</v>
@@ -27360,7 +27382,7 @@
         <v>11.37000000000002</v>
       </c>
       <c r="K532" t="n">
-        <v>1.4925373134328</v>
+        <v>21.42857142857165</v>
       </c>
       <c r="L532" t="n">
         <v>7.352000000000009</v>
@@ -27411,7 +27433,7 @@
         <v>11.38000000000002</v>
       </c>
       <c r="K533" t="n">
-        <v>-7.936507936507876</v>
+        <v>21.42857142857165</v>
       </c>
       <c r="L533" t="n">
         <v>7.357000000000009</v>
@@ -27462,7 +27484,7 @@
         <v>11.39000000000002</v>
       </c>
       <c r="K534" t="n">
-        <v>-9.375000000000016</v>
+        <v>-26.31578947368441</v>
       </c>
       <c r="L534" t="n">
         <v>7.362000000000009</v>
@@ -27513,7 +27535,7 @@
         <v>11.43000000000002</v>
       </c>
       <c r="K535" t="n">
-        <v>6.451612903225783</v>
+        <v>-9.090909090909275</v>
       </c>
       <c r="L535" t="n">
         <v>7.361000000000009</v>
@@ -27564,7 +27586,7 @@
         <v>11.43000000000002</v>
       </c>
       <c r="K536" t="n">
-        <v>-1.754385964912393</v>
+        <v>17.64705882352886</v>
       </c>
       <c r="L536" t="n">
         <v>7.359000000000009</v>
@@ -27615,7 +27637,7 @@
         <v>11.44000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>-1.754385964912231</v>
+        <v>22.22222222222184</v>
       </c>
       <c r="L537" t="n">
         <v>7.363000000000009</v>
@@ -27666,7 +27688,7 @@
         <v>11.45000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>9.803921568627318</v>
+        <v>29.41176470588134</v>
       </c>
       <c r="L538" t="n">
         <v>7.366000000000009</v>
@@ -27717,7 +27739,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>-11.99999999999997</v>
+        <v>15.78947368421026</v>
       </c>
       <c r="L539" t="n">
         <v>7.366000000000009</v>
@@ -27768,7 +27790,7 @@
         <v>11.55000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>-1.818181818181921</v>
+        <v>15.78947368420979</v>
       </c>
       <c r="L540" t="n">
         <v>7.374000000000009</v>
@@ -27819,7 +27841,7 @@
         <v>11.59000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>5.882352941176286</v>
+        <v>-9.090909090909127</v>
       </c>
       <c r="L541" t="n">
         <v>7.373000000000009</v>
@@ -27870,7 +27892,7 @@
         <v>11.62000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L542" t="n">
         <v>7.368000000000009</v>
@@ -27921,7 +27943,7 @@
         <v>11.62000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>1.886792452830305</v>
+        <v>-13.04347826086916</v>
       </c>
       <c r="L543" t="n">
         <v>7.364000000000009</v>
@@ -27972,7 +27994,7 @@
         <v>11.67000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>12.28070175438597</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L544" t="n">
         <v>7.366000000000009</v>
@@ -28023,7 +28045,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>-12.00000000000001</v>
+        <v>-18.51851851851824</v>
       </c>
       <c r="L545" t="n">
         <v>7.36100000000001</v>

--- a/BackTest/2019-11-12 BackTest VET.xlsx
+++ b/BackTest/2019-11-12 BackTest VET.xlsx
@@ -451,17 +451,13 @@
         <v>6.488166666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>6.489</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>6.489999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>6.491166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.49</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>6.493166666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>6.494333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>6.494499999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.51</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>6.493666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>6.494166666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>6.493666666666665</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.46</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>6.494833333333331</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>6.495166666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,17 +871,13 @@
         <v>6.496499999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -990,22 +906,14 @@
         <v>6.496999999999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,22 +941,14 @@
         <v>6.497833333333331</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1076,22 +976,14 @@
         <v>6.498166666666664</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1119,22 +1011,14 @@
         <v>6.498666666666665</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1162,22 +1046,14 @@
         <v>6.499666666666665</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,22 +1081,14 @@
         <v>6.500166666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1116,14 @@
         <v>6.500833333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1291,22 +1151,14 @@
         <v>6.501666666666665</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1186,14 @@
         <v>6.502833333333331</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1377,22 +1221,14 @@
         <v>6.503833333333332</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1420,22 +1256,14 @@
         <v>6.505499999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1463,22 +1291,14 @@
         <v>6.507166666666665</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1506,22 +1326,14 @@
         <v>6.508666666666665</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1549,22 +1361,14 @@
         <v>6.509999999999997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1396,14 @@
         <v>6.511499999999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1635,22 +1431,14 @@
         <v>6.512499999999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1678,22 +1466,14 @@
         <v>6.511833333333331</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1721,22 +1501,14 @@
         <v>6.511166666666664</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K32" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1536,14 @@
         <v>6.509166666666664</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1807,22 +1571,14 @@
         <v>6.507666666666664</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1850,22 +1606,14 @@
         <v>6.506166666666663</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K35" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1893,22 +1641,14 @@
         <v>6.505333333333329</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1936,22 +1676,14 @@
         <v>6.503999999999996</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1979,22 +1711,14 @@
         <v>6.501666666666662</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +1746,14 @@
         <v>6.500333333333328</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2065,22 +1781,14 @@
         <v>6.500499999999994</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +1816,14 @@
         <v>6.499833333333328</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2151,22 +1851,14 @@
         <v>6.499333333333327</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2194,22 +1886,14 @@
         <v>6.499499999999994</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2237,22 +1921,14 @@
         <v>6.500499999999994</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2280,22 +1956,14 @@
         <v>6.501499999999994</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +1991,14 @@
         <v>6.502833333333328</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2366,22 +2026,14 @@
         <v>6.504499999999994</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2409,22 +2061,14 @@
         <v>6.505833333333327</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="K48" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2452,22 +2096,14 @@
         <v>6.50816666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="K49" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2495,22 +2131,14 @@
         <v>6.510333333333326</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2544,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2626,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2749,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2790,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2831,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2872,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2995,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3036,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3077,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3118,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3159,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3200,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3282,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3323,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3364,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3446,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3487,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3528,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3569,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3610,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3651,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3733,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3774,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3856,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3897,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3938,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4061,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4102,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4143,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4225,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4389,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4430,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4553,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4635,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4676,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4881,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4919,17 +4199,11 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4960,17 +4234,11 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5086,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5250,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5291,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5455,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5657,19 +4829,13 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>1.057787136294028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5698,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5733,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5768,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5803,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -11505,13 +10671,17 @@
         <v>7.180166666666667</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K294" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
@@ -11540,14 +10710,22 @@
         <v>7.178666666666667</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K295" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11575,14 +10753,22 @@
         <v>7.1765</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="K296" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11610,14 +10796,22 @@
         <v>7.174499999999999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="K297" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11645,14 +10839,22 @@
         <v>7.171166666666665</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K298" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11680,14 +10882,22 @@
         <v>7.168499999999999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="K299" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11721,8 +10931,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11756,8 +10972,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11791,8 +11013,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11826,8 +11054,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11861,8 +11095,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11896,8 +11136,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11931,8 +11177,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11960,14 +11212,22 @@
         <v>7.157499999999999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="K307" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11995,14 +11255,22 @@
         <v>7.156</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K308" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12030,14 +11298,22 @@
         <v>7.154333333333333</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K309" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12065,14 +11341,22 @@
         <v>7.153333333333333</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K310" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12100,14 +11384,22 @@
         <v>7.152</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="K311" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12135,14 +11427,22 @@
         <v>7.149833333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K312" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12170,14 +11470,22 @@
         <v>7.148166666666666</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="K313" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12211,8 +11519,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12240,14 +11554,22 @@
         <v>7.146499999999999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="K315" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12281,8 +11603,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12316,8 +11644,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12351,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12386,8 +11726,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12421,8 +11767,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12456,8 +11808,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12491,8 +11849,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12526,8 +11890,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12561,8 +11931,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12596,8 +11972,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +12013,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12666,8 +12054,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12701,8 +12095,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12736,8 +12136,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12771,8 +12177,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12806,8 +12218,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +12259,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12876,8 +12300,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12911,8 +12341,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12946,8 +12382,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12981,8 +12423,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13016,8 +12464,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13051,8 +12505,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13086,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13121,8 +12587,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13156,8 +12628,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13191,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13226,8 +12710,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13261,8 +12751,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13296,8 +12792,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13331,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13366,8 +12874,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13401,8 +12915,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13436,8 +12956,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13471,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13506,8 +13038,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13541,8 +13079,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13576,8 +13120,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13611,8 +13161,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13646,8 +13202,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13681,8 +13243,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13716,8 +13284,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13751,8 +13325,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +13366,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13821,8 +13407,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13856,8 +13448,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13891,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13926,8 +13530,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +13571,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13996,8 +13612,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14031,8 +13653,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14066,8 +13694,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14101,8 +13735,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14136,8 +13776,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14171,8 +13817,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14206,8 +13858,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14241,8 +13899,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14276,8 +13940,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14311,8 +13981,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14346,8 +14022,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14381,8 +14063,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14416,8 +14104,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14451,8 +14145,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14486,8 +14186,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14521,8 +14227,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14556,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14591,8 +14309,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14626,8 +14350,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14661,8 +14391,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14696,8 +14432,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14731,8 +14473,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14766,8 +14514,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14801,8 +14555,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14836,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +14637,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14906,8 +14678,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +14719,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14976,8 +14760,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15011,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15046,8 +14842,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15081,8 +14883,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15116,8 +14924,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15151,8 +14965,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15186,8 +15006,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15221,8 +15047,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15256,8 +15088,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15291,8 +15129,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15326,8 +15170,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15361,8 +15211,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15396,8 +15252,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15431,8 +15293,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15466,8 +15334,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15501,8 +15375,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15536,8 +15416,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15571,8 +15457,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15606,8 +15498,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15641,8 +15539,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15676,8 +15580,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15711,8 +15621,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15746,8 +15662,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15781,8 +15703,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15816,8 +15744,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15851,8 +15785,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15886,8 +15826,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15921,8 +15867,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15956,8 +15908,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15991,8 +15949,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16023,11 +15987,17 @@
         <v>0</v>
       </c>
       <c r="I423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16058,11 +16028,17 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16069,17 @@
         <v>0</v>
       </c>
       <c r="I425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16131,8 +16113,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16166,8 +16154,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16201,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16236,8 +16236,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16271,8 +16277,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16306,8 +16318,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16341,8 +16359,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16376,8 +16400,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16411,8 +16441,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16446,8 +16482,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16481,8 +16523,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16516,8 +16564,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16551,8 +16605,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16586,8 +16646,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16621,8 +16687,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16656,8 +16728,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16691,8 +16769,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16726,8 +16810,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16761,8 +16851,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16796,8 +16892,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16831,8 +16933,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16863,11 +16971,17 @@
         <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16898,11 +17012,17 @@
         <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16936,8 +17056,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16971,8 +17097,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17006,8 +17138,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17041,8 +17179,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17076,8 +17220,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17111,8 +17261,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17146,8 +17302,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17181,8 +17343,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17216,8 +17384,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17251,8 +17425,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17286,8 +17466,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17321,8 +17507,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17356,8 +17548,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17391,8 +17589,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17426,8 +17630,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17461,8 +17671,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17496,8 +17712,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17531,8 +17753,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17566,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17601,8 +17835,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17636,8 +17876,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17671,8 +17917,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17706,8 +17958,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17741,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17776,8 +18040,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17811,8 +18081,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17846,8 +18122,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17881,8 +18163,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17916,8 +18204,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17951,8 +18245,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17986,8 +18286,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18021,8 +18327,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18056,8 +18368,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18091,8 +18409,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18126,8 +18450,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18161,8 +18491,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18196,8 +18532,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18231,8 +18573,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18266,8 +18614,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18301,8 +18655,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18336,8 +18696,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18371,8 +18737,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18406,8 +18778,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18441,8 +18819,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18476,8 +18860,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18511,8 +18901,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18546,8 +18942,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18581,8 +18983,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18616,8 +19024,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18651,8 +19065,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18686,8 +19106,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18721,8 +19147,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18756,8 +19188,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18791,8 +19229,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18826,8 +19270,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18861,8 +19311,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18896,8 +19352,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18931,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18966,8 +19434,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19001,8 +19475,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19036,8 +19516,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19071,8 +19557,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19106,8 +19598,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19141,8 +19639,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19176,8 +19680,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19211,8 +19721,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19246,8 +19762,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19281,8 +19803,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19316,8 +19844,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19351,8 +19885,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19386,8 +19926,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19421,8 +19967,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19456,8 +20008,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19491,8 +20049,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19526,8 +20090,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +20131,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-12 BackTest VET.xlsx
+++ b/BackTest/2019-11-12 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>866336.7392999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>408433.2215999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.44</v>
@@ -521,7 +521,7 @@
         <v>354680.3586999997</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.43</v>
@@ -562,7 +562,7 @@
         <v>-30057.22180000023</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6.42</v>
@@ -603,7 +603,7 @@
         <v>31949.56919999977</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.39</v>
@@ -644,7 +644,7 @@
         <v>32050.29429999976</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6.44</v>
@@ -685,7 +685,7 @@
         <v>32050.29429999976</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>6.5</v>
@@ -726,9 +726,11 @@
         <v>24478.93099999976</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J9" t="n">
         <v>6.44</v>
       </c>
@@ -765,9 +767,11 @@
         <v>33753.30959999976</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.43</v>
+      </c>
       <c r="J10" t="n">
         <v>6.44</v>
       </c>
@@ -804,9 +808,11 @@
         <v>24771.72359999976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J11" t="n">
         <v>6.44</v>
       </c>
@@ -843,9 +849,11 @@
         <v>28684.17629999976</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J12" t="n">
         <v>6.44</v>
       </c>
@@ -882,7 +890,7 @@
         <v>13601.65839999976</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.5</v>
@@ -923,7 +931,7 @@
         <v>16682.48419999976</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.45</v>
@@ -964,7 +972,7 @@
         <v>9632.983799999758</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.5</v>
@@ -1005,7 +1013,7 @@
         <v>13278.83229999976</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.46</v>
@@ -1046,7 +1054,7 @@
         <v>13198.83229999976</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.52</v>
@@ -1087,9 +1095,11 @@
         <v>12280.42929999976</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J18" t="n">
         <v>6.44</v>
       </c>
@@ -1126,9 +1136,11 @@
         <v>16280.42929999976</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J19" t="n">
         <v>6.44</v>
       </c>
@@ -1165,9 +1177,11 @@
         <v>7831.879899999758</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J20" t="n">
         <v>6.44</v>
       </c>
@@ -1204,9 +1218,11 @@
         <v>10761.87989999976</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J21" t="n">
         <v>6.44</v>
       </c>
@@ -1243,9 +1259,11 @@
         <v>10684.59729999976</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J22" t="n">
         <v>6.44</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>10552.11459999976</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>6.47</v>
@@ -1323,7 +1341,7 @@
         <v>-181389.3806000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6.46</v>
@@ -1364,7 +1382,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>6.44</v>
@@ -1405,7 +1423,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>6.42</v>
@@ -1446,7 +1464,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>6.42</v>
@@ -1487,7 +1505,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6.42</v>
@@ -1528,7 +1546,7 @@
         <v>-253635.5724000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>6.42</v>
@@ -1569,7 +1587,7 @@
         <v>-62645.80290000024</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>6.44</v>
@@ -1610,7 +1628,7 @@
         <v>69523.02519999977</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>6.46</v>
@@ -1651,7 +1669,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>6.48</v>
@@ -1692,7 +1710,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>6.55</v>
@@ -1733,7 +1751,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>6.55</v>
@@ -1774,7 +1792,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>6.55</v>
@@ -1815,9 +1833,11 @@
         <v>348750.0942999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J36" t="n">
         <v>6.44</v>
       </c>
@@ -1854,9 +1874,11 @@
         <v>348882.4557999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.58</v>
+      </c>
       <c r="J37" t="n">
         <v>6.44</v>
       </c>
@@ -1893,9 +1915,11 @@
         <v>232701.1513999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J38" t="n">
         <v>6.44</v>
       </c>
@@ -1932,9 +1956,11 @@
         <v>220796.1513999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J39" t="n">
         <v>6.44</v>
       </c>
@@ -1971,7 +1997,7 @@
         <v>244252.0363999998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>6.47</v>
@@ -2012,7 +2038,7 @@
         <v>253868.4677999998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>6.54</v>
@@ -2053,9 +2079,11 @@
         <v>237150.6494999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.56</v>
+      </c>
       <c r="J42" t="n">
         <v>6.44</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>251597.3189999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>6.54</v>
@@ -2133,9 +2161,11 @@
         <v>241951.4794999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J44" t="n">
         <v>6.44</v>
       </c>
@@ -2172,9 +2202,11 @@
         <v>153056.7857999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J45" t="n">
         <v>6.44</v>
       </c>
@@ -2211,9 +2243,11 @@
         <v>-348007.5135000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J46" t="n">
         <v>6.44</v>
       </c>
@@ -2250,9 +2284,11 @@
         <v>-346418.3795000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J47" t="n">
         <v>6.44</v>
       </c>
@@ -2289,9 +2325,11 @@
         <v>-393807.5921000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J48" t="n">
         <v>6.44</v>
       </c>
@@ -2328,9 +2366,11 @@
         <v>-249250.4094000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J49" t="n">
         <v>6.44</v>
       </c>
@@ -2367,9 +2407,11 @@
         <v>-246504.6017000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J50" t="n">
         <v>6.44</v>
       </c>
@@ -2406,9 +2448,11 @@
         <v>-277117.5178000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J51" t="n">
         <v>6.44</v>
       </c>
@@ -2445,9 +2489,11 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J52" t="n">
         <v>6.44</v>
       </c>
@@ -2484,9 +2530,11 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J53" t="n">
         <v>6.44</v>
       </c>
@@ -2523,9 +2571,11 @@
         <v>-346780.8497000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J54" t="n">
         <v>6.44</v>
       </c>
@@ -2562,9 +2612,11 @@
         <v>-379738.3875000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.47</v>
+      </c>
       <c r="J55" t="n">
         <v>6.44</v>
       </c>
@@ -2601,9 +2653,11 @@
         <v>-379738.3875000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J56" t="n">
         <v>6.44</v>
       </c>
@@ -2640,7 +2694,7 @@
         <v>-362949.6399000002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>6.46</v>
@@ -2681,7 +2735,7 @@
         <v>-376449.6399000002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>6.49</v>
@@ -2722,9 +2776,11 @@
         <v>-375372.1749000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J59" t="n">
         <v>6.44</v>
       </c>
@@ -2761,7 +2817,7 @@
         <v>-375372.1749000002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>6.49</v>
@@ -2802,9 +2858,11 @@
         <v>-374877.1085000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J61" t="n">
         <v>6.44</v>
       </c>
@@ -2841,9 +2899,11 @@
         <v>-447970.4025000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J62" t="n">
         <v>6.44</v>
       </c>
@@ -2880,9 +2940,11 @@
         <v>-447970.4025000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J63" t="n">
         <v>6.44</v>
       </c>
@@ -2919,9 +2981,11 @@
         <v>-447970.4025000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J64" t="n">
         <v>6.44</v>
       </c>
@@ -2958,9 +3022,11 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J65" t="n">
         <v>6.44</v>
       </c>
@@ -2997,9 +3063,11 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J66" t="n">
         <v>6.44</v>
       </c>
@@ -3036,9 +3104,11 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J67" t="n">
         <v>6.44</v>
       </c>
@@ -3075,9 +3145,11 @@
         <v>-453665.5446000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J68" t="n">
         <v>6.44</v>
       </c>
@@ -3114,9 +3186,11 @@
         <v>-434489.5717000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J69" t="n">
         <v>6.44</v>
       </c>
@@ -3153,9 +3227,11 @@
         <v>-434489.5717000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J70" t="n">
         <v>6.44</v>
       </c>
@@ -3192,9 +3268,11 @@
         <v>-349367.5717000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J71" t="n">
         <v>6.44</v>
       </c>
@@ -3231,9 +3309,11 @@
         <v>-349367.5717000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J72" t="n">
         <v>6.44</v>
       </c>
@@ -3270,9 +3350,11 @@
         <v>-339367.5717000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J73" t="n">
         <v>6.44</v>
       </c>
@@ -3309,9 +3391,11 @@
         <v>-339367.5717000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J74" t="n">
         <v>6.44</v>
       </c>
@@ -3348,9 +3432,11 @@
         <v>-339557.1597000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J75" t="n">
         <v>6.44</v>
       </c>
@@ -3387,9 +3473,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J76" t="n">
         <v>6.44</v>
       </c>
@@ -3426,9 +3514,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J77" t="n">
         <v>6.44</v>
       </c>
@@ -3465,9 +3555,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J78" t="n">
         <v>6.44</v>
       </c>
@@ -3504,9 +3596,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J79" t="n">
         <v>6.44</v>
       </c>
@@ -3543,9 +3637,11 @@
         <v>-290353.3970000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J80" t="n">
         <v>6.44</v>
       </c>
@@ -3582,9 +3678,11 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J81" t="n">
         <v>6.44</v>
       </c>
@@ -3621,9 +3719,11 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J82" t="n">
         <v>6.44</v>
       </c>
@@ -3660,9 +3760,11 @@
         <v>-489588.3970000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J83" t="n">
         <v>6.44</v>
       </c>
@@ -3699,9 +3801,11 @@
         <v>-489048.0293000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J84" t="n">
         <v>6.44</v>
       </c>
@@ -3738,9 +3842,11 @@
         <v>-489548.0293000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J85" t="n">
         <v>6.44</v>
       </c>
@@ -3777,9 +3883,11 @@
         <v>-492358.4413000002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J86" t="n">
         <v>6.44</v>
       </c>
@@ -3816,9 +3924,11 @@
         <v>-592358.4412000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J87" t="n">
         <v>6.44</v>
       </c>
@@ -3855,9 +3965,11 @@
         <v>-387890.4412000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J88" t="n">
         <v>6.44</v>
       </c>
@@ -3894,9 +4006,11 @@
         <v>-387890.4413000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J89" t="n">
         <v>6.44</v>
       </c>
@@ -3933,9 +4047,11 @@
         <v>-607453.7285000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J90" t="n">
         <v>6.44</v>
       </c>
@@ -3972,9 +4088,11 @@
         <v>-607284.0905000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.42</v>
+      </c>
       <c r="J91" t="n">
         <v>6.44</v>
       </c>
@@ -4011,9 +4129,11 @@
         <v>-607984.0905000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.44</v>
+      </c>
       <c r="J92" t="n">
         <v>6.44</v>
       </c>
@@ -4050,9 +4170,11 @@
         <v>-588971.8090000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.43</v>
+      </c>
       <c r="J93" t="n">
         <v>6.44</v>
       </c>
@@ -4089,9 +4211,11 @@
         <v>-588971.8090000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J94" t="n">
         <v>6.44</v>
       </c>
@@ -4128,9 +4252,11 @@
         <v>-577146.3175000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J95" t="n">
         <v>6.44</v>
       </c>
@@ -4167,9 +4293,11 @@
         <v>-577146.3175000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J96" t="n">
         <v>6.44</v>
       </c>
@@ -4206,9 +4334,11 @@
         <v>-584653.0060000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J97" t="n">
         <v>6.44</v>
       </c>
@@ -4245,9 +4375,11 @@
         <v>-584653.0060000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J98" t="n">
         <v>6.44</v>
       </c>
@@ -4284,9 +4416,11 @@
         <v>-490910.0822000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J99" t="n">
         <v>6.44</v>
       </c>
@@ -4323,9 +4457,11 @@
         <v>-380936.1637760001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J100" t="n">
         <v>6.44</v>
       </c>
@@ -4362,9 +4498,11 @@
         <v>-350936.1637760001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J101" t="n">
         <v>6.44</v>
       </c>
@@ -4401,9 +4539,11 @@
         <v>-339726.5623760002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J102" t="n">
         <v>6.44</v>
       </c>
@@ -4440,9 +4580,11 @@
         <v>723856.8362239997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J103" t="n">
         <v>6.44</v>
       </c>
@@ -4479,9 +4621,11 @@
         <v>718140.2110239997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.61</v>
+      </c>
       <c r="J104" t="n">
         <v>6.44</v>
       </c>
@@ -4518,9 +4662,11 @@
         <v>827425.8658239997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J105" t="n">
         <v>6.44</v>
       </c>
@@ -4557,9 +4703,11 @@
         <v>821999.3828239997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.61</v>
+      </c>
       <c r="J106" t="n">
         <v>6.44</v>
       </c>
@@ -4596,9 +4744,11 @@
         <v>870227.0771239997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.59</v>
+      </c>
       <c r="J107" t="n">
         <v>6.44</v>
       </c>
@@ -4635,9 +4785,11 @@
         <v>917600.6193239997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.63</v>
+      </c>
       <c r="J108" t="n">
         <v>6.44</v>
       </c>
@@ -4674,9 +4826,11 @@
         <v>918544.4874239997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6.64</v>
+      </c>
       <c r="J109" t="n">
         <v>6.44</v>
       </c>
@@ -4713,9 +4867,11 @@
         <v>918544.4874239997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J110" t="n">
         <v>6.44</v>
       </c>
@@ -4752,9 +4908,11 @@
         <v>1434471.136724</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J111" t="n">
         <v>6.44</v>
       </c>
@@ -4791,9 +4949,11 @@
         <v>1434471.136724</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6.67</v>
+      </c>
       <c r="J112" t="n">
         <v>6.44</v>
       </c>
@@ -4830,9 +4990,11 @@
         <v>1434471.136724</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.67</v>
+      </c>
       <c r="J113" t="n">
         <v>6.44</v>
       </c>
@@ -4869,9 +5031,11 @@
         <v>1415107.067324</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.67</v>
+      </c>
       <c r="J114" t="n">
         <v>6.44</v>
       </c>
@@ -4908,9 +5072,11 @@
         <v>1415107.067324</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J115" t="n">
         <v>6.44</v>
       </c>
@@ -4947,9 +5113,11 @@
         <v>1415107.067324</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J116" t="n">
         <v>6.44</v>
       </c>
@@ -4986,9 +5154,11 @@
         <v>6976519.088923999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J117" t="n">
         <v>6.44</v>
       </c>
@@ -5259,9 +5429,11 @@
         <v>6905546.055424</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6.59</v>
+      </c>
       <c r="J124" t="n">
         <v>6.44</v>
       </c>
@@ -5298,9 +5470,11 @@
         <v>6894821.821124</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6.61</v>
+      </c>
       <c r="J125" t="n">
         <v>6.44</v>
       </c>
@@ -5337,9 +5511,11 @@
         <v>7153175.821124</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J126" t="n">
         <v>6.44</v>
       </c>
@@ -5415,9 +5591,11 @@
         <v>7229896.821024001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.63</v>
+      </c>
       <c r="J128" t="n">
         <v>6.44</v>
       </c>
@@ -9549,7 +9727,7 @@
         <v>19049866.13312031</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
@@ -9557,15 +9735,13 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.099037267080745</v>
-      </c>
-      <c r="M234" t="n">
-        <v>1.003115264797508</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9590,11 +9766,17 @@
         <v>18548728.65552031</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9623,11 +9805,17 @@
         <v>18548728.65552031</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9659,8 +9847,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9692,8 +9886,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9725,8 +9925,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9758,8 +9964,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9791,8 +10003,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9824,8 +10042,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9857,8 +10081,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9890,8 +10120,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9923,8 +10159,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9956,8 +10198,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9989,8 +10237,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10022,8 +10276,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10055,8 +10315,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10088,8 +10354,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10121,8 +10393,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10154,8 +10432,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10187,8 +10471,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10220,8 +10510,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10253,8 +10549,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10286,8 +10588,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10319,8 +10627,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10352,8 +10666,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10385,8 +10705,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10418,8 +10744,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10451,8 +10783,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10484,8 +10822,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10517,8 +10861,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10550,8 +10900,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10583,8 +10939,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10616,8 +10978,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10649,8 +11017,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10682,8 +11056,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10715,8 +11095,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10748,8 +11134,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10781,8 +11173,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10814,8 +11212,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10847,8 +11251,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10880,8 +11290,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10913,8 +11329,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +11365,17 @@
         <v>17754535.7242203</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10976,11 +11404,17 @@
         <v>17578075.5796203</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11009,11 +11443,17 @@
         <v>17572693.2621203</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11045,8 +11485,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11078,8 +11524,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11111,8 +11563,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11144,8 +11602,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11177,8 +11641,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11210,8 +11680,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11243,8 +11719,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11276,8 +11758,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11309,8 +11797,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +11836,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +11875,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11408,8 +11914,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11441,8 +11953,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +11989,17 @@
         <v>21148137.0352203</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11504,11 +12028,17 @@
         <v>21148137.0352203</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11537,11 +12067,17 @@
         <v>20771184.6929203</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +12106,17 @@
         <v>20917506.9261203</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +12145,17 @@
         <v>20917506.9261203</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11636,11 +12184,17 @@
         <v>21400486.59092153</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11669,11 +12223,17 @@
         <v>21394455.03642153</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11702,11 +12262,17 @@
         <v>21144330.12162153</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11735,11 +12301,17 @@
         <v>21355039.24056879</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11768,11 +12340,17 @@
         <v>19834829.57656879</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11801,11 +12379,17 @@
         <v>20309887.48976878</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +12418,17 @@
         <v>20056717.12366879</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11867,11 +12457,17 @@
         <v>20076977.33086878</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11903,8 +12499,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11936,8 +12538,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11969,8 +12577,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12002,8 +12616,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +12652,17 @@
         <v>19904784.53466878</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12065,11 +12691,17 @@
         <v>19904784.53466878</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12098,11 +12730,17 @@
         <v>19906584.53466878</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12131,11 +12769,17 @@
         <v>19906584.53466878</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12164,11 +12808,17 @@
         <v>19563343.13216878</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +12847,17 @@
         <v>19600427.46696879</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12230,11 +12886,17 @@
         <v>19590677.60116879</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12263,11 +12925,17 @@
         <v>19630436.60076879</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12296,11 +12964,17 @@
         <v>19063363.83256879</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12329,11 +13003,17 @@
         <v>19002166.98916879</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12362,11 +13042,17 @@
         <v>18870841.36746879</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12395,11 +13081,17 @@
         <v>18870841.36746879</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12428,11 +13120,17 @@
         <v>18871341.36746879</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +13162,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +13201,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12530,8 +13240,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12563,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12596,8 +13318,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12629,8 +13357,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12662,8 +13396,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12695,8 +13435,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12728,8 +13474,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12761,8 +13513,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12794,8 +13552,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12827,8 +13591,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12857,11 +13627,17 @@
         <v>17114386.46224961</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12890,11 +13666,17 @@
         <v>17078765.95544961</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12923,11 +13705,17 @@
         <v>17078765.95544961</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12956,11 +13744,17 @@
         <v>17078765.95544961</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12989,11 +13783,17 @@
         <v>16346103.64544961</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13022,15 +13822,23 @@
         <v>16346103.64544961</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+        <v>1.105248447204969</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1.003115264797508</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13055,7 +13863,7 @@
         <v>15459922.62824961</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13088,7 +13896,7 @@
         <v>15422965.03564961</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13121,7 +13929,7 @@
         <v>15997015.58754961</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13286,7 +14094,7 @@
         <v>16240608.21964961</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13319,7 +14127,7 @@
         <v>16240608.21964961</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13352,7 +14160,7 @@
         <v>16241308.21964961</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13385,7 +14193,7 @@
         <v>16240324.69964961</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13418,7 +14226,7 @@
         <v>16581033.15134961</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14144,7 +14952,7 @@
         <v>16234235.78464164</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14177,7 +14985,7 @@
         <v>16027657.08844164</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14276,7 +15084,7 @@
         <v>16017170.48174164</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14540,7 +15348,7 @@
         <v>15846674.77954164</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14573,7 +15381,7 @@
         <v>15846674.77954164</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14672,7 +15480,7 @@
         <v>15883013.10774164</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14936,7 +15744,7 @@
         <v>14877863.98234164</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15002,7 +15810,7 @@
         <v>14929635.04084164</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -17675,7 +18483,7 @@
         <v>14832156.73050614</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17708,7 +18516,7 @@
         <v>14316515.78120614</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17741,7 +18549,7 @@
         <v>14438792.14290614</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17774,7 +18582,7 @@
         <v>14304443.98420614</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17807,7 +18615,7 @@
         <v>15065265.84080614</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17840,7 +18648,7 @@
         <v>15081198.23360614</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17873,7 +18681,7 @@
         <v>15119160.41730614</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17906,7 +18714,7 @@
         <v>15111594.03980614</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17939,7 +18747,7 @@
         <v>14983806.09870614</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17972,7 +18780,7 @@
         <v>14988806.09870614</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18005,7 +18813,7 @@
         <v>14501858.41540614</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18038,7 +18846,7 @@
         <v>14390880.16410614</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18236,7 +19044,7 @@
         <v>14734893.60490614</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18269,7 +19077,7 @@
         <v>15119745.84630614</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18302,7 +19110,7 @@
         <v>16199511.51710614</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18335,7 +19143,7 @@
         <v>16062439.98310614</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18368,7 +19176,7 @@
         <v>16620905.87340614</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18401,7 +19209,7 @@
         <v>16758275.48010614</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18434,7 +19242,7 @@
         <v>18559235.31810614</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18467,7 +19275,7 @@
         <v>19930347.96290614</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18500,7 +19308,7 @@
         <v>19325112.75830614</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18533,7 +19341,7 @@
         <v>19325112.75830614</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18566,7 +19374,7 @@
         <v>19185521.88790614</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18599,7 +19407,7 @@
         <v>19989395.86927575</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18632,7 +19440,7 @@
         <v>21112037.15915728</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18665,7 +19473,7 @@
         <v>19164983.38465728</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18698,7 +19506,7 @@
         <v>20034731.77625728</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18731,7 +19539,7 @@
         <v>18534622.29885728</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18764,7 +19572,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18962,7 +19770,7 @@
         <v>18375815.38855183</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18995,7 +19803,7 @@
         <v>18552918.48825183</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19028,7 +19836,7 @@
         <v>18194936.91975183</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19061,7 +19869,7 @@
         <v>18215051.73185183</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19094,7 +19902,7 @@
         <v>20577660.27645183</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19127,7 +19935,7 @@
         <v>19529752.01125183</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19160,7 +19968,7 @@
         <v>18031430.87705183</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19193,7 +20001,7 @@
         <v>18049865.75775183</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19226,7 +20034,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19259,7 +20067,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19292,7 +20100,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19325,7 +20133,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19358,7 +20166,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19391,7 +20199,7 @@
         <v>20993347.20255183</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19424,7 +20232,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19457,7 +20265,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19490,7 +20298,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19523,7 +20331,7 @@
         <v>19430984.78795183</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19622,7 +20430,7 @@
         <v>19882943.00615183</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19919,7 +20727,7 @@
         <v>22714064.04796353</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19952,7 +20760,7 @@
         <v>19602741.98136353</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19985,7 +20793,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20018,7 +20826,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20051,7 +20859,7 @@
         <v>19121085.93056353</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20084,7 +20892,7 @@
         <v>19133071.20226353</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20117,7 +20925,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20150,7 +20958,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20183,7 +20991,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20315,7 +21123,7 @@
         <v>17974890.99676353</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20348,7 +21156,7 @@
         <v>18769735.01336353</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20381,7 +21189,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20414,7 +21222,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20447,7 +21255,7 @@
         <v>18608121.98746353</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20480,7 +21288,7 @@
         <v>18231166.07476353</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20612,7 +21420,7 @@
         <v>17736617.34306353</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20678,7 +21486,7 @@
         <v>17021434.02186353</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20711,7 +21519,7 @@
         <v>17077534.76076353</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20744,7 +21552,7 @@
         <v>17077534.76076353</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20810,7 +21618,7 @@
         <v>18490309.30936353</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21074,7 +21882,7 @@
         <v>17985264.27626353</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21140,7 +21948,7 @@
         <v>18476355.41943695</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21173,7 +21981,7 @@
         <v>18272178.95871036</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21206,7 +22014,7 @@
         <v>18272178.95871036</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21239,7 +22047,7 @@
         <v>18268396.09241036</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21272,7 +22080,7 @@
         <v>18032007.73921036</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21305,7 +22113,7 @@
         <v>18280649.98311036</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21338,7 +22146,7 @@
         <v>18282040.15081036</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21371,7 +22179,7 @@
         <v>17967092.74581036</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21404,7 +22212,7 @@
         <v>17593755.29191036</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21415,6 +22223,6 @@
       <c r="M593" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest VET.xlsx
+++ b/BackTest/2019-11-12 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -685,11 +685,9 @@
         <v>32050.29429999976</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>6.44</v>
       </c>
@@ -726,11 +724,9 @@
         <v>24478.93099999976</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>6.44</v>
       </c>
@@ -808,11 +804,9 @@
         <v>24771.72359999976</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>6.44</v>
       </c>
@@ -849,11 +843,9 @@
         <v>28684.17629999976</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>6.44</v>
       </c>
@@ -890,11 +882,9 @@
         <v>13601.65839999976</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>6.44</v>
       </c>
@@ -931,11 +921,9 @@
         <v>16682.48419999976</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>6.44</v>
       </c>
@@ -972,11 +960,9 @@
         <v>9632.983799999758</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>6.44</v>
       </c>
@@ -1013,11 +999,9 @@
         <v>13278.83229999976</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>6.44</v>
       </c>
@@ -1054,11 +1038,9 @@
         <v>13198.83229999976</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>6.44</v>
       </c>
@@ -1095,11 +1077,9 @@
         <v>12280.42929999976</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>6.44</v>
       </c>
@@ -1136,11 +1116,9 @@
         <v>16280.42929999976</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>6.44</v>
       </c>
@@ -1177,11 +1155,9 @@
         <v>7831.879899999758</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>6.44</v>
       </c>
@@ -1218,11 +1194,9 @@
         <v>10761.87989999976</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>6.44</v>
       </c>
@@ -1259,11 +1233,9 @@
         <v>10684.59729999976</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>6.44</v>
       </c>
@@ -1300,11 +1272,9 @@
         <v>10552.11459999976</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>6.44</v>
       </c>
@@ -1341,11 +1311,9 @@
         <v>-181389.3806000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>6.44</v>
       </c>
@@ -1382,11 +1350,9 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>6.44</v>
       </c>
@@ -1423,11 +1389,9 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>6.44</v>
       </c>
@@ -1669,11 +1633,9 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>6.44</v>
       </c>
@@ -1710,11 +1672,9 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>6.44</v>
       </c>
@@ -1751,11 +1711,9 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>6.44</v>
       </c>
@@ -1792,11 +1750,9 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>6.44</v>
       </c>
@@ -1833,11 +1789,9 @@
         <v>348750.0942999998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>6.44</v>
       </c>
@@ -1874,11 +1828,9 @@
         <v>348882.4557999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>6.44</v>
       </c>
@@ -1915,11 +1867,9 @@
         <v>232701.1513999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>6.44</v>
       </c>
@@ -1956,11 +1906,9 @@
         <v>220796.1513999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>6.44</v>
       </c>
@@ -1997,11 +1945,9 @@
         <v>244252.0363999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>6.44</v>
       </c>
@@ -2038,11 +1984,9 @@
         <v>253868.4677999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>6.44</v>
       </c>
@@ -2079,11 +2023,9 @@
         <v>237150.6494999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>6.44</v>
       </c>
@@ -2120,11 +2062,9 @@
         <v>251597.3189999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>6.44</v>
       </c>
@@ -2161,11 +2101,9 @@
         <v>241951.4794999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>6.44</v>
       </c>
@@ -2202,11 +2140,9 @@
         <v>153056.7857999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>6.44</v>
       </c>
@@ -2243,11 +2179,9 @@
         <v>-348007.5135000002</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>6.44</v>
       </c>
@@ -2284,11 +2218,9 @@
         <v>-346418.3795000002</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>6.44</v>
       </c>
@@ -2325,11 +2257,9 @@
         <v>-393807.5921000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>6.44</v>
       </c>
@@ -2366,11 +2296,9 @@
         <v>-249250.4094000002</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>6.44</v>
       </c>
@@ -2407,11 +2335,9 @@
         <v>-246504.6017000002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>6.44</v>
       </c>
@@ -2448,11 +2374,9 @@
         <v>-277117.5178000002</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>6.44</v>
       </c>
@@ -2489,11 +2413,9 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>6.44</v>
       </c>
@@ -2530,11 +2452,9 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>6.44</v>
       </c>
@@ -2571,11 +2491,9 @@
         <v>-346780.8497000002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>6.44</v>
       </c>
@@ -2612,11 +2530,9 @@
         <v>-379738.3875000002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>6.44</v>
       </c>
@@ -3063,11 +2979,9 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>6.44</v>
       </c>
@@ -3145,11 +3059,9 @@
         <v>-453665.5446000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>6.44</v>
       </c>
@@ -3391,11 +3303,9 @@
         <v>-339367.5717000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>6.44</v>
       </c>
@@ -3432,11 +3342,9 @@
         <v>-339557.1597000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>6.44</v>
       </c>
@@ -3473,11 +3381,9 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>6.44</v>
       </c>
@@ -3514,11 +3420,9 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>6.44</v>
       </c>
@@ -3555,11 +3459,9 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>6.44</v>
       </c>
@@ -3596,11 +3498,9 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>6.44</v>
       </c>
@@ -3637,11 +3537,9 @@
         <v>-290353.3970000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>6.44</v>
       </c>
@@ -3678,11 +3576,9 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>6.44</v>
       </c>
@@ -3719,11 +3615,9 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>6.44</v>
       </c>
@@ -4621,11 +4515,9 @@
         <v>718140.2110239997</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>6.44</v>
       </c>
@@ -4662,11 +4554,9 @@
         <v>827425.8658239997</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>6.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>6.44</v>
       </c>
@@ -4703,11 +4593,9 @@
         <v>821999.3828239997</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>6.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>6.44</v>
       </c>
@@ -4744,11 +4632,9 @@
         <v>870227.0771239997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>6.44</v>
       </c>
@@ -4785,11 +4671,9 @@
         <v>917600.6193239997</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>6.44</v>
       </c>
@@ -4826,11 +4710,9 @@
         <v>918544.4874239997</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>6.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>6.44</v>
       </c>
@@ -4867,11 +4749,9 @@
         <v>918544.4874239997</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>6.44</v>
       </c>
@@ -4908,11 +4788,9 @@
         <v>1434471.136724</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>6.44</v>
       </c>
@@ -4949,11 +4827,9 @@
         <v>1434471.136724</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>6.44</v>
       </c>
@@ -4990,11 +4866,9 @@
         <v>1434471.136724</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>6.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>6.44</v>
       </c>
@@ -5031,11 +4905,9 @@
         <v>1415107.067324</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>6.44</v>
       </c>
@@ -5072,11 +4944,9 @@
         <v>1415107.067324</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>6.44</v>
       </c>
@@ -5113,11 +4983,9 @@
         <v>1415107.067324</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>6.44</v>
       </c>
@@ -5154,11 +5022,9 @@
         <v>6976519.088923999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>6.44</v>
       </c>
@@ -5429,11 +5295,9 @@
         <v>6905546.055424</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>6.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>6.44</v>
       </c>
@@ -5470,11 +5334,9 @@
         <v>6894821.821124</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>6.44</v>
       </c>
@@ -5511,11 +5373,9 @@
         <v>7153175.821124</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>6.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>6.44</v>
       </c>
@@ -5591,11 +5451,9 @@
         <v>7229896.821024001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>6.44</v>
       </c>
@@ -7426,7 +7284,7 @@
         <v>13071844.96748155</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
@@ -7434,13 +7292,15 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>1.071086956521739</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.003115264797508</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7465,17 +7325,11 @@
         <v>13164838.39408155</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7507,14 +7361,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7546,14 +7394,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7585,14 +7427,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7624,14 +7460,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7663,14 +7493,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7699,17 +7523,11 @@
         <v>15483502.88928155</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7738,17 +7556,11 @@
         <v>15325461.29538155</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7777,17 +7589,11 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7816,17 +7622,11 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7855,17 +7655,11 @@
         <v>15252485.80038155</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7894,17 +7688,11 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7933,17 +7721,11 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7972,17 +7754,11 @@
         <v>16608095.35108155</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -8011,17 +7787,11 @@
         <v>17196278.41538155</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8050,17 +7820,11 @@
         <v>17116121.27388155</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8089,17 +7853,11 @@
         <v>16979344.65228155</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8128,17 +7886,11 @@
         <v>17152635.76648155</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8167,17 +7919,11 @@
         <v>17026315.96588155</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8206,17 +7952,11 @@
         <v>16812485.18818155</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8245,17 +7985,11 @@
         <v>16611935.18818155</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8284,17 +8018,11 @@
         <v>16631784.82648155</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8323,17 +8051,11 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8362,17 +8084,11 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8401,17 +8117,11 @@
         <v>16385584.40528155</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8440,17 +8150,11 @@
         <v>16636240.66018155</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8479,17 +8183,11 @@
         <v>16635745.82368155</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8518,17 +8216,11 @@
         <v>16581346.79878155</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8560,14 +8252,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8596,17 +8282,11 @@
         <v>16983687.07028155</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8635,17 +8315,11 @@
         <v>17223890.37988155</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8677,14 +8351,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8716,14 +8384,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8755,14 +8417,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8794,14 +8450,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8833,14 +8483,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8872,14 +8516,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8911,14 +8549,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8950,14 +8582,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8986,17 +8612,11 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9025,17 +8645,11 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9064,17 +8678,11 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9103,17 +8711,11 @@
         <v>16746514.95368155</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9145,14 +8747,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9184,14 +8780,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9223,14 +8813,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9262,14 +8846,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9301,14 +8879,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9340,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9379,14 +8945,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9418,14 +8978,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9457,14 +9011,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9496,14 +9044,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9535,14 +9077,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9574,14 +9110,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9613,14 +9143,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9652,14 +9176,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9691,14 +9209,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9730,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9769,14 +9275,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9808,14 +9308,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9847,14 +9341,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9886,14 +9374,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9925,14 +9407,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9964,14 +9440,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -10003,14 +9473,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10042,14 +9506,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10081,14 +9539,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10120,14 +9572,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10159,14 +9605,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10198,14 +9638,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10237,14 +9671,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10276,14 +9704,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10315,14 +9737,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10354,14 +9770,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10393,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10432,14 +9836,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10471,14 +9869,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10510,14 +9902,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10549,14 +9935,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10588,14 +9968,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10627,14 +10001,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10666,14 +10034,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10705,14 +10067,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10744,14 +10100,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10783,14 +10133,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10822,14 +10166,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10861,14 +10199,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10900,14 +10232,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10939,14 +10265,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10978,14 +10298,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11017,14 +10331,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11056,14 +10364,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11095,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11134,14 +10430,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11173,14 +10463,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11212,14 +10496,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11251,14 +10529,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11290,14 +10562,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11329,14 +10595,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11368,14 +10628,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11407,14 +10661,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11446,14 +10694,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11485,14 +10727,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11524,14 +10760,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11563,14 +10793,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11602,14 +10826,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11641,14 +10859,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11680,14 +10892,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11719,14 +10925,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11758,14 +10958,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11797,14 +10991,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11836,14 +11024,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11875,14 +11057,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11914,14 +11090,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11953,14 +11123,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11992,14 +11156,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12031,14 +11189,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12070,14 +11222,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12109,14 +11255,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12148,14 +11288,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12187,14 +11321,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12226,14 +11354,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12265,14 +11387,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12304,14 +11420,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12343,14 +11453,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12382,14 +11486,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12421,14 +11519,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12460,14 +11552,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12499,14 +11585,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12538,14 +11618,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12577,14 +11651,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12616,14 +11684,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12655,14 +11717,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12694,14 +11750,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12733,14 +11783,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12772,14 +11816,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12811,14 +11849,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12850,14 +11882,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12889,14 +11915,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12928,14 +11948,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12967,14 +11981,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -13006,14 +12014,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13045,14 +12047,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13084,14 +12080,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13123,14 +12113,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13162,14 +12146,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13201,14 +12179,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13240,14 +12212,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13279,14 +12245,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13318,14 +12278,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13357,14 +12311,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13396,14 +12344,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13435,14 +12377,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13474,14 +12410,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13513,14 +12443,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13552,14 +12476,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13591,14 +12509,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13630,14 +12542,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13669,14 +12575,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13708,14 +12608,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13747,14 +12641,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13786,14 +12674,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13822,23 +12704,15 @@
         <v>16346103.64544961</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
-        <v>1.105248447204969</v>
-      </c>
-      <c r="M339" t="n">
-        <v>1.003115264797508</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13863,7 +12737,7 @@
         <v>15459922.62824961</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -19770,7 +18644,7 @@
         <v>18375815.38855183</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19803,7 +18677,7 @@
         <v>18552918.48825183</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19836,7 +18710,7 @@
         <v>18194936.91975183</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19869,7 +18743,7 @@
         <v>18215051.73185183</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19902,7 +18776,7 @@
         <v>20577660.27645183</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19935,7 +18809,7 @@
         <v>19529752.01125183</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19968,7 +18842,7 @@
         <v>18031430.87705183</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20001,7 +18875,7 @@
         <v>18049865.75775183</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20034,7 +18908,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20067,7 +18941,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20100,7 +18974,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20133,7 +19007,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20166,7 +19040,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20199,7 +19073,7 @@
         <v>20993347.20255183</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20232,7 +19106,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20265,7 +19139,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20298,7 +19172,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20331,7 +19205,7 @@
         <v>19430984.78795183</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20430,7 +19304,7 @@
         <v>19882943.00615183</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20760,7 +19634,7 @@
         <v>19602741.98136353</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20793,7 +19667,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20826,7 +19700,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20859,7 +19733,7 @@
         <v>19121085.93056353</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20892,7 +19766,7 @@
         <v>19133071.20226353</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20925,7 +19799,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20958,7 +19832,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20991,7 +19865,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21123,7 +19997,7 @@
         <v>17974890.99676353</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21156,7 +20030,7 @@
         <v>18769735.01336353</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -22047,7 +20921,7 @@
         <v>18268396.09241036</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22080,7 +20954,7 @@
         <v>18032007.73921036</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22113,7 +20987,7 @@
         <v>18280649.98311036</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22146,7 +21020,7 @@
         <v>18282040.15081036</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22179,7 +21053,7 @@
         <v>17967092.74581036</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22212,7 +21086,7 @@
         <v>17593755.29191036</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22223,6 +21097,6 @@
       <c r="M593" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest VET.xlsx
+++ b/BackTest/2019-11-12 BackTest VET.xlsx
@@ -685,9 +685,11 @@
         <v>32050.29429999976</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J8" t="n">
         <v>6.44</v>
       </c>
@@ -724,9 +726,11 @@
         <v>24478.93099999976</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J9" t="n">
         <v>6.44</v>
       </c>
@@ -804,9 +808,11 @@
         <v>24771.72359999976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J11" t="n">
         <v>6.44</v>
       </c>
@@ -843,9 +849,11 @@
         <v>28684.17629999976</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J12" t="n">
         <v>6.44</v>
       </c>
@@ -882,9 +890,11 @@
         <v>13601.65839999976</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J13" t="n">
         <v>6.44</v>
       </c>
@@ -921,9 +931,11 @@
         <v>16682.48419999976</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J14" t="n">
         <v>6.44</v>
       </c>
@@ -960,9 +972,11 @@
         <v>9632.983799999758</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J15" t="n">
         <v>6.44</v>
       </c>
@@ -999,9 +1013,11 @@
         <v>13278.83229999976</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J16" t="n">
         <v>6.44</v>
       </c>
@@ -1038,9 +1054,11 @@
         <v>13198.83229999976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J17" t="n">
         <v>6.44</v>
       </c>
@@ -1077,9 +1095,11 @@
         <v>12280.42929999976</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J18" t="n">
         <v>6.44</v>
       </c>
@@ -1116,9 +1136,11 @@
         <v>16280.42929999976</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J19" t="n">
         <v>6.44</v>
       </c>
@@ -1155,9 +1177,11 @@
         <v>7831.879899999758</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J20" t="n">
         <v>6.44</v>
       </c>
@@ -1194,9 +1218,11 @@
         <v>10761.87989999976</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J21" t="n">
         <v>6.44</v>
       </c>
@@ -1233,9 +1259,11 @@
         <v>10684.59729999976</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J22" t="n">
         <v>6.44</v>
       </c>
@@ -1272,9 +1300,11 @@
         <v>10552.11459999976</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.47</v>
+      </c>
       <c r="J23" t="n">
         <v>6.44</v>
       </c>
@@ -1311,9 +1341,11 @@
         <v>-181389.3806000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J24" t="n">
         <v>6.44</v>
       </c>
@@ -1350,9 +1382,11 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.44</v>
+      </c>
       <c r="J25" t="n">
         <v>6.44</v>
       </c>
@@ -1389,9 +1423,11 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.42</v>
+      </c>
       <c r="J26" t="n">
         <v>6.44</v>
       </c>
@@ -1633,9 +1669,11 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J32" t="n">
         <v>6.44</v>
       </c>
@@ -1672,9 +1710,11 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J33" t="n">
         <v>6.44</v>
       </c>
@@ -1711,9 +1751,11 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J34" t="n">
         <v>6.44</v>
       </c>
@@ -1750,9 +1792,11 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J35" t="n">
         <v>6.44</v>
       </c>
@@ -1789,9 +1833,11 @@
         <v>348750.0942999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J36" t="n">
         <v>6.44</v>
       </c>
@@ -1828,9 +1874,11 @@
         <v>348882.4557999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.58</v>
+      </c>
       <c r="J37" t="n">
         <v>6.44</v>
       </c>
@@ -1867,9 +1915,11 @@
         <v>232701.1513999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J38" t="n">
         <v>6.44</v>
       </c>
@@ -1906,9 +1956,11 @@
         <v>220796.1513999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J39" t="n">
         <v>6.44</v>
       </c>
@@ -1945,9 +1997,11 @@
         <v>244252.0363999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.47</v>
+      </c>
       <c r="J40" t="n">
         <v>6.44</v>
       </c>
@@ -1984,9 +2038,11 @@
         <v>253868.4677999998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J41" t="n">
         <v>6.44</v>
       </c>
@@ -2023,9 +2079,11 @@
         <v>237150.6494999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.56</v>
+      </c>
       <c r="J42" t="n">
         <v>6.44</v>
       </c>
@@ -2062,9 +2120,11 @@
         <v>251597.3189999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J43" t="n">
         <v>6.44</v>
       </c>
@@ -2101,9 +2161,11 @@
         <v>241951.4794999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.55</v>
+      </c>
       <c r="J44" t="n">
         <v>6.44</v>
       </c>
@@ -2140,9 +2202,11 @@
         <v>153056.7857999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J45" t="n">
         <v>6.44</v>
       </c>
@@ -2179,9 +2243,11 @@
         <v>-348007.5135000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J46" t="n">
         <v>6.44</v>
       </c>
@@ -2218,9 +2284,11 @@
         <v>-346418.3795000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.49</v>
+      </c>
       <c r="J47" t="n">
         <v>6.44</v>
       </c>
@@ -2452,9 +2520,11 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J53" t="n">
         <v>6.44</v>
       </c>
@@ -2491,9 +2561,11 @@
         <v>-346780.8497000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J54" t="n">
         <v>6.44</v>
       </c>
@@ -2530,9 +2602,11 @@
         <v>-379738.3875000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.47</v>
+      </c>
       <c r="J55" t="n">
         <v>6.44</v>
       </c>
@@ -2979,9 +3053,11 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J66" t="n">
         <v>6.44</v>
       </c>
@@ -3059,9 +3135,11 @@
         <v>-453665.5446000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J68" t="n">
         <v>6.44</v>
       </c>
@@ -3303,9 +3381,11 @@
         <v>-339367.5717000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J74" t="n">
         <v>6.44</v>
       </c>
@@ -3342,9 +3422,11 @@
         <v>-339557.1597000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.53</v>
+      </c>
       <c r="J75" t="n">
         <v>6.44</v>
       </c>
@@ -3381,9 +3463,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J76" t="n">
         <v>6.44</v>
       </c>
@@ -3420,9 +3504,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J77" t="n">
         <v>6.44</v>
       </c>
@@ -3459,9 +3545,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J78" t="n">
         <v>6.44</v>
       </c>
@@ -3498,9 +3586,11 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J79" t="n">
         <v>6.44</v>
       </c>
@@ -3537,9 +3627,11 @@
         <v>-290353.3970000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J80" t="n">
         <v>6.44</v>
       </c>
@@ -3576,9 +3668,11 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J81" t="n">
         <v>6.44</v>
       </c>
@@ -3615,9 +3709,11 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.54</v>
+      </c>
       <c r="J82" t="n">
         <v>6.44</v>
       </c>
@@ -3736,11 +3832,9 @@
         <v>-489548.0293000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>6.44</v>
       </c>
@@ -3777,11 +3871,9 @@
         <v>-492358.4413000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>6.44</v>
       </c>
@@ -3900,11 +3992,9 @@
         <v>-387890.4413000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>6.44</v>
       </c>
@@ -3941,11 +4031,9 @@
         <v>-607453.7285000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>6.44</v>
       </c>
@@ -4515,9 +4603,11 @@
         <v>718140.2110239997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.61</v>
+      </c>
       <c r="J104" t="n">
         <v>6.44</v>
       </c>
@@ -4554,9 +4644,11 @@
         <v>827425.8658239997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J105" t="n">
         <v>6.44</v>
       </c>
@@ -4593,9 +4685,11 @@
         <v>821999.3828239997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.61</v>
+      </c>
       <c r="J106" t="n">
         <v>6.44</v>
       </c>
@@ -7284,7 +7378,7 @@
         <v>13071844.96748155</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
@@ -7292,15 +7386,13 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.071086956521739</v>
-      </c>
-      <c r="M175" t="n">
-        <v>1.003115264797508</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7325,11 +7417,17 @@
         <v>13164838.39408155</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7361,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7394,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7427,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7460,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7493,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7523,11 +7651,17 @@
         <v>15483502.88928155</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7556,11 +7690,17 @@
         <v>15325461.29538155</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7589,11 +7729,17 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +7768,17 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7655,11 +7807,17 @@
         <v>15252485.80038155</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +7846,17 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7721,11 +7885,17 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7754,11 +7924,17 @@
         <v>16608095.35108155</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7787,11 +7963,17 @@
         <v>17196278.41538155</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +8002,17 @@
         <v>17116121.27388155</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +8041,17 @@
         <v>16979344.65228155</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7886,11 +8080,17 @@
         <v>17152635.76648155</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +8119,17 @@
         <v>17026315.96588155</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +8158,17 @@
         <v>16812485.18818155</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +8197,17 @@
         <v>16611935.18818155</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8018,11 +8236,17 @@
         <v>16631784.82648155</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8051,11 +8275,17 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8084,11 +8314,17 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +8353,17 @@
         <v>16385584.40528155</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8150,11 +8392,17 @@
         <v>16636240.66018155</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8183,11 +8431,17 @@
         <v>16635745.82368155</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +8470,17 @@
         <v>16581346.79878155</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8252,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +8548,17 @@
         <v>16983687.07028155</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8315,11 +8587,17 @@
         <v>17223890.37988155</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8351,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8384,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8417,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8450,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8483,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8516,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8549,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8582,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8612,11 +8938,17 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8977,17 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8678,11 +9016,17 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8711,11 +9055,17 @@
         <v>16746514.95368155</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8747,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8780,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8813,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8846,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8879,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8912,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8945,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8978,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9011,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9044,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9077,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9176,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9341,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9374,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9407,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9473,8 +9955,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9506,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +10033,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +10072,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9605,8 +10111,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9638,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9671,8 +10189,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +10228,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9737,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9770,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9803,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9836,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9869,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9902,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9968,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10034,8 +10618,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10067,8 +10657,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10100,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10133,8 +10735,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10199,8 +10813,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10232,8 +10852,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +10891,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +10930,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10331,8 +10969,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +11047,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10463,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10496,8 +11164,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10529,8 +11203,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10562,8 +11242,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +11281,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10628,8 +11320,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10661,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10727,8 +11437,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10760,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10793,8 +11515,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10826,8 +11554,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10892,8 +11632,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10925,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10958,8 +11710,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10991,8 +11749,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11024,8 +11788,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11057,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11123,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11156,8 +11944,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +11983,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +12022,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11255,8 +12061,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +12100,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11486,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +12373,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11651,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11717,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +12646,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11816,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11948,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11981,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +12958,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12047,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12080,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12113,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12146,8 +13114,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12179,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12212,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12245,8 +13231,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12278,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12311,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12344,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12377,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12410,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12443,8 +13465,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12476,8 +13504,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12509,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12542,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12575,8 +13621,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12608,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12641,8 +13699,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12674,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +13777,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +13816,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12773,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12806,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12839,8 +13933,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12872,8 +13972,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12905,8 +14011,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +14050,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12971,8 +14089,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13037,8 +14167,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13103,8 +14245,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13136,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +14323,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13202,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13235,8 +14401,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13268,8 +14440,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13301,8 +14479,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13334,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13367,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13400,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13433,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13466,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13499,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13565,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13598,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13631,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13664,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13697,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13928,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +15259,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14027,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +15376,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14258,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14324,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14357,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14390,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14423,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14456,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14489,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14522,8 +15922,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +16000,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +16078,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +16117,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14720,8 +16156,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14753,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14786,8 +16234,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14819,8 +16273,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14852,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14951,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15017,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15083,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15116,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15149,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15182,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15215,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15248,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15281,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15314,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15347,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15380,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15413,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15446,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15479,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15512,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15545,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15578,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15611,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15644,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15677,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15710,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15743,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15776,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15809,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15842,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15875,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15908,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15941,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15974,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16007,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16040,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16073,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16106,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16139,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16172,8 +17872,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +17911,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16238,8 +17950,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16271,8 +17989,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16304,8 +18028,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16337,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16370,8 +18106,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16403,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16436,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16469,8 +18223,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16502,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16535,8 +18301,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16568,8 +18340,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16601,8 +18379,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16634,8 +18418,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16667,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16700,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16733,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16766,8 +18574,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16799,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16832,8 +18652,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16865,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16898,8 +18730,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16931,8 +18769,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16964,8 +18808,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16997,8 +18847,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17030,8 +18886,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17063,8 +18925,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17096,8 +18964,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17129,8 +19003,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17162,8 +19042,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17195,8 +19081,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17228,8 +19120,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17261,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17294,8 +19198,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17327,8 +19237,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17393,8 +19315,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17426,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17459,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17492,8 +19432,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +19471,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17558,8 +19510,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17591,8 +19549,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17624,8 +19588,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17657,8 +19627,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17690,8 +19666,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17723,8 +19705,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17756,8 +19744,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17789,8 +19783,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17822,8 +19822,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17855,8 +19861,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17888,8 +19900,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17921,8 +19939,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17954,8 +19978,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17987,8 +20017,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18020,8 +20056,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18053,8 +20095,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18086,8 +20134,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18119,8 +20173,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18152,8 +20212,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18185,8 +20251,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18215,15 +20287,23 @@
         <v>19325112.75830614</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
+        <v>1.145621118012423</v>
+      </c>
+      <c r="M506" t="n">
+        <v>1.003115264797508</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -18248,7 +20328,7 @@
         <v>19185521.88790614</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18281,7 +20361,7 @@
         <v>19989395.86927575</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18314,7 +20394,7 @@
         <v>21112037.15915728</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18347,7 +20427,7 @@
         <v>19164983.38465728</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18380,7 +20460,7 @@
         <v>20034731.77625728</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18413,7 +20493,7 @@
         <v>18534622.29885728</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18446,7 +20526,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18479,7 +20559,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18512,7 +20592,7 @@
         <v>18392743.38755728</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18545,7 +20625,7 @@
         <v>18392743.38755728</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18578,7 +20658,7 @@
         <v>18282696.33585728</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18677,7 +20757,7 @@
         <v>18552918.48825183</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18710,7 +20790,7 @@
         <v>18194936.91975183</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18743,7 +20823,7 @@
         <v>18215051.73185183</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18809,7 +20889,7 @@
         <v>19529752.01125183</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18842,7 +20922,7 @@
         <v>18031430.87705183</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18875,7 +20955,7 @@
         <v>18049865.75775183</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18908,7 +20988,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18941,7 +21021,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18974,7 +21054,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19007,7 +21087,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19040,7 +21120,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19073,7 +21153,7 @@
         <v>20993347.20255183</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19106,7 +21186,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19139,7 +21219,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19172,7 +21252,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19205,7 +21285,7 @@
         <v>19430984.78795183</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19238,7 +21318,7 @@
         <v>18974936.43105183</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19271,7 +21351,7 @@
         <v>19736720.87285183</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19304,7 +21384,7 @@
         <v>19882943.00615183</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19337,7 +21417,7 @@
         <v>20185333.93595183</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19370,7 +21450,7 @@
         <v>21025594.85925183</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19403,7 +21483,7 @@
         <v>20513359.84726777</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19436,7 +21516,7 @@
         <v>19904184.93996777</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19469,7 +21549,7 @@
         <v>20046007.57646777</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19502,7 +21582,7 @@
         <v>20046007.57646777</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19535,7 +21615,7 @@
         <v>21084781.99126353</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19568,7 +21648,7 @@
         <v>20774460.28266353</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19601,7 +21681,7 @@
         <v>22714064.04796353</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19634,7 +21714,7 @@
         <v>19602741.98136353</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19667,7 +21747,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19700,7 +21780,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19733,7 +21813,7 @@
         <v>19121085.93056353</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19766,7 +21846,7 @@
         <v>19133071.20226353</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19799,7 +21879,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19832,7 +21912,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19865,7 +21945,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19898,7 +21978,7 @@
         <v>18078577.01066353</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19931,7 +22011,7 @@
         <v>18078577.01066353</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19964,7 +22044,7 @@
         <v>17970038.04336353</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19997,7 +22077,7 @@
         <v>17974890.99676353</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20063,7 +22143,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20096,7 +22176,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20129,7 +22209,7 @@
         <v>18608121.98746353</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20162,7 +22242,7 @@
         <v>18231166.07476353</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20360,7 +22440,7 @@
         <v>17021434.02186353</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20393,7 +22473,7 @@
         <v>17077534.76076353</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20459,7 +22539,7 @@
         <v>17066388.73666353</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20525,7 +22605,7 @@
         <v>18631466.87456353</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20657,7 +22737,7 @@
         <v>18187839.15246353</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
